--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_10_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_10_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1020372.555544329</v>
+        <v>1016881.30267932</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9761530.672592824</v>
+        <v>9761530.672592822</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6182241.288029941</v>
+        <v>6182241.288029936</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8073248.99247975</v>
+        <v>8073248.992479749</v>
       </c>
     </row>
     <row r="11">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="E2" t="n">
         <v>229.9609751381512</v>
@@ -673,7 +673,7 @@
         <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>189.8241328163614</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>180.7930048594845</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>107.3113616767259</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>81.60523950676073</v>
       </c>
       <c r="F3" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
         <v>175.2139736830806</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -831,10 +831,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>49.81315995577555</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>229.9609751381512</v>
+        <v>81.94083567800566</v>
       </c>
       <c r="U4" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W4" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>180.7930048594845</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>12.725494085322</v>
+        <v>93.09545221568158</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="V5" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
       <c r="X5" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -977,25 +977,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>88.78320848489832</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>20.04111164468522</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1031,16 +1031,16 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1053,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>111.1208004946594</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>89.73163134740363</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>229.9609751381512</v>
+        <v>139.4038155149886</v>
       </c>
       <c r="G8" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="H8" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>27.98289658589034</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1214,13 +1214,13 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C9" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>123.1874880556995</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1274,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>135.1723917862952</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y9" t="n">
-        <v>14.51842747544363</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="10">
@@ -1305,13 +1305,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>92.68021510912928</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1372,16 +1372,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>148.2703884537294</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7280314676198</v>
+        <v>50.09966294330959</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>132.2057643252521</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>214.9949119152865</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.0806038094227</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>80.01219929357815</v>
       </c>
       <c r="I12" t="n">
-        <v>22.5048223685793</v>
+        <v>22.50482236857961</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y12" t="n">
-        <v>177.5210747552481</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="13">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>34.50997959171566</v>
+        <v>8.980438953358194</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>112.4399028193201</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>93.77007553716916</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.5898275796758</v>
@@ -1593,7 +1593,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>368.1434852364789</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>106.0002498536387</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7280314676198</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>253.0806038094227</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -1697,7 +1697,7 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F15" t="n">
-        <v>123.1874880556995</v>
+        <v>123.1874880556998</v>
       </c>
       <c r="G15" t="n">
         <v>118.092774975586</v>
@@ -1754,7 +1754,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y15" t="n">
-        <v>177.5210747552481</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="16">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.9289518101895</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.2108091896707</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>112.4399028193201</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>230.6163710485488</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5493550286257</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>24.13987030575433</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
-        <v>220.8809405715231</v>
+        <v>198.570266533034</v>
       </c>
     </row>
     <row r="17">
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>143.7983090616134</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>306.1718264066727</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7280314676198</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.2057643252521</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>214.9949119152865</v>
       </c>
       <c r="U17" t="n">
-        <v>253.0806038094227</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>28.00311862440993</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2013,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.9289518101895</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>15.2143280286457</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>93.77007553716916</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.5898275796758</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>149.1330733998781</v>
+        <v>230.6163710485488</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5493550286257</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
         <v>280.4970980481341</v>
@@ -2070,7 +2070,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,22 +2083,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>19.75029159430208</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>407.5986472028184</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>306.1718264066727</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>81.7280314676198</v>
@@ -2134,7 +2134,7 @@
         <v>132.2057643252521</v>
       </c>
       <c r="T20" t="n">
-        <v>117.2630017047538</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2244,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>165.9289518101895</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>33.63581812773989</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>93.77007553716916</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.5898275796758</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>230.6163710485488</v>
       </c>
       <c r="U22" t="n">
         <v>282.5493550286257</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>280.4970980481341</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.16452334118336</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -2332,7 +2332,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>380.7644519552951</v>
       </c>
       <c r="H23" t="n">
         <v>306.1718264066727</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>120.4444142919427</v>
+        <v>132.2057643252521</v>
       </c>
       <c r="T23" t="n">
         <v>214.9949119152865</v>
@@ -2386,7 +2386,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>149.7460109301125</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>112.4399028193201</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>93.77007553716916</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.5898275796758</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>230.6163710485488</v>
       </c>
       <c r="U25" t="n">
-        <v>207.4951489218404</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>220.8809405715231</v>
@@ -2560,22 +2560,22 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>407.5986472028184</v>
       </c>
       <c r="H26" t="n">
         <v>306.1718264066727</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>81.7280314676198</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>132.2057643252521</v>
       </c>
       <c r="T26" t="n">
         <v>214.9949119152865</v>
@@ -2620,7 +2620,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>84.54171894179714</v>
+        <v>243.1536830762265</v>
       </c>
       <c r="Y26" t="n">
         <v>392.5258019886049</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>162.1737747728307</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>155.7526754391568</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.5898275796758</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>230.6163710485488</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5493550286257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>53.31178557498559</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>381.5867174954989</v>
@@ -2806,13 +2806,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>407.5986472028184</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>250.4092766995895</v>
+        <v>306.1718264066727</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>81.7280314676198</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>132.2057643252521</v>
       </c>
       <c r="T29" t="n">
         <v>214.9949119152865</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.0806038094227</v>
       </c>
       <c r="V29" t="n">
         <v>338.6857412035168</v>
@@ -2857,7 +2857,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>263.1337251375302</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2952,22 +2952,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>163.708672956832</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.9289518101895</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.2108091896707</v>
       </c>
       <c r="I31" t="n">
         <v>112.4399028193201</v>
@@ -3003,19 +3003,19 @@
         <v>189.5898275796758</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>230.6163710485488</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5493550286257</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>163.923226192598</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>285.2241789040588</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>407.5986472028184</v>
       </c>
       <c r="H32" t="n">
         <v>306.1718264066727</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>81.7280314676198</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>214.9949119152865</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.0806038094227</v>
       </c>
       <c r="V32" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>190.4295795975955</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>53.54729352784364</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.9289518101895</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>112.4399028193201</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.5898275796758</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>230.6163710485488</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5493550286257</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>218.9800151300878</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>407.5986472028184</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>71.37167664799864</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>214.9949119152865</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>259.0639619153057</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -3426,22 +3426,22 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.9289518101895</v>
       </c>
       <c r="H37" t="n">
-        <v>148.2108091896707</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>93.77007553716916</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.5898275796758</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>230.6163710485488</v>
       </c>
       <c r="U37" t="n">
-        <v>263.6906381594283</v>
+        <v>173.9844226622529</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,22 +3505,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>407.5986472028184</v>
       </c>
       <c r="H38" t="n">
-        <v>284.263766670976</v>
+        <v>306.1718264066727</v>
       </c>
       <c r="I38" t="n">
         <v>81.7280314676198</v>
@@ -3559,13 +3559,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>253.0806038094227</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>285.9229366301745</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>150.2783710965521</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C39" t="n">
         <v>149.1476881355087</v>
@@ -3666,13 +3666,13 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>120.8893914246826</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>93.77007553716916</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.5898275796758</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>230.6163710485488</v>
       </c>
       <c r="U40" t="n">
         <v>282.5493550286257</v>
       </c>
       <c r="V40" t="n">
-        <v>105.6912165509869</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>407.5986472028184</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>132.2057643252521</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>79.43775487537734</v>
       </c>
       <c r="X41" t="n">
-        <v>313.0392342793248</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>150.2783710965521</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C42" t="n">
         <v>149.1476881355087</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>8.980438953358194</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>22.07350742137429</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.2108091896707</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>93.77007553716916</v>
       </c>
       <c r="S43" t="n">
-        <v>189.5898275796758</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>230.6163710485488</v>
@@ -3957,10 +3957,10 @@
         <v>282.5493550286257</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
@@ -3979,7 +3979,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>110.9979626885713</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,10 +3988,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>407.5986472028184</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4030,19 +4030,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>214.9949119152865</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>211.6435192006296</v>
       </c>
       <c r="Y44" t="n">
         <v>392.5258019886049</v>
@@ -4076,7 +4076,7 @@
         <v>80.01219929357815</v>
       </c>
       <c r="I45" t="n">
-        <v>22.5048223685793</v>
+        <v>22.50482236857961</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.9289518101895</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>112.4399028193201</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.5898275796758</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>230.6163710485488</v>
@@ -4197,13 +4197,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>88.84497734743977</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>55.4256209369681</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>272.6570771831229</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="C2" t="n">
-        <v>272.6570771831229</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="D2" t="n">
-        <v>272.6570771831229</v>
+        <v>455.276274010885</v>
       </c>
       <c r="E2" t="n">
-        <v>40.37326391226304</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="F2" t="n">
-        <v>27.51922948264486</v>
+        <v>210.1384263104071</v>
       </c>
       <c r="G2" t="n">
         <v>18.39687801105209</v>
@@ -4330,25 +4330,25 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J2" t="n">
-        <v>18.39687801105209</v>
+        <v>52.01424425134721</v>
       </c>
       <c r="K2" t="n">
-        <v>246.0582433978217</v>
+        <v>279.6756096381168</v>
       </c>
       <c r="L2" t="n">
-        <v>464.5211697790654</v>
+        <v>279.6756096381168</v>
       </c>
       <c r="M2" t="n">
-        <v>692.182535165835</v>
+        <v>279.6756096381168</v>
       </c>
       <c r="N2" t="n">
-        <v>919.8439005526046</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="O2" t="n">
-        <v>919.8439005526046</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="P2" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="Q2" t="n">
         <v>919.8439005526046</v>
@@ -4366,16 +4366,16 @@
         <v>919.8439005526046</v>
       </c>
       <c r="V2" t="n">
-        <v>737.2247037248425</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W2" t="n">
-        <v>504.9408904539827</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X2" t="n">
-        <v>272.6570771831229</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Y2" t="n">
-        <v>272.6570771831229</v>
+        <v>919.8439005526046</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>567.1467112086164</v>
+        <v>394.7052908994581</v>
       </c>
       <c r="C3" t="n">
-        <v>458.7513963836407</v>
+        <v>394.7052908994581</v>
       </c>
       <c r="D3" t="n">
-        <v>328.662429005121</v>
+        <v>394.7052908994581</v>
       </c>
       <c r="E3" t="n">
-        <v>192.2159381160087</v>
+        <v>312.2757560441443</v>
       </c>
       <c r="F3" t="n">
-        <v>67.7841319991405</v>
+        <v>187.8439499272761</v>
       </c>
       <c r="G3" t="n">
         <v>67.7841319991405</v>
@@ -4409,19 +4409,19 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J3" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K3" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="L3" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="M3" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="N3" t="n">
-        <v>246.0582433978217</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="O3" t="n">
         <v>464.5211697790654</v>
@@ -4436,25 +4436,25 @@
         <v>895.9268574506692</v>
       </c>
       <c r="S3" t="n">
-        <v>895.9268574506692</v>
+        <v>760.996180350538</v>
       </c>
       <c r="T3" t="n">
-        <v>718.9430456495777</v>
+        <v>584.0123685494465</v>
       </c>
       <c r="U3" t="n">
-        <v>718.9430456495777</v>
+        <v>584.0123685494465</v>
       </c>
       <c r="V3" t="n">
-        <v>718.9430456495777</v>
+        <v>584.0123685494465</v>
       </c>
       <c r="W3" t="n">
-        <v>718.9430456495777</v>
+        <v>584.0123685494465</v>
       </c>
       <c r="X3" t="n">
-        <v>718.9430456495777</v>
+        <v>394.7052908994581</v>
       </c>
       <c r="Y3" t="n">
-        <v>718.9430456495777</v>
+        <v>394.7052908994581</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48.77514818495014</v>
+        <v>372.5077531240106</v>
       </c>
       <c r="C4" t="n">
-        <v>48.77514818495014</v>
+        <v>372.5077531240106</v>
       </c>
       <c r="D4" t="n">
-        <v>48.77514818495014</v>
+        <v>372.5077531240106</v>
       </c>
       <c r="E4" t="n">
-        <v>48.77514818495014</v>
+        <v>372.5077531240106</v>
       </c>
       <c r="F4" t="n">
-        <v>48.77514818495014</v>
+        <v>372.5077531240106</v>
       </c>
       <c r="G4" t="n">
-        <v>48.77514818495014</v>
+        <v>204.2536992234562</v>
       </c>
       <c r="H4" t="n">
         <v>48.77514818495014</v>
@@ -4512,28 +4512,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R4" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S4" t="n">
-        <v>745.6265879975296</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T4" t="n">
-        <v>513.3427747266697</v>
+        <v>837.0753796657302</v>
       </c>
       <c r="U4" t="n">
-        <v>281.0589614558099</v>
+        <v>604.7915663948704</v>
       </c>
       <c r="V4" t="n">
-        <v>281.0589614558099</v>
+        <v>372.5077531240106</v>
       </c>
       <c r="W4" t="n">
-        <v>48.77514818495014</v>
+        <v>372.5077531240106</v>
       </c>
       <c r="X4" t="n">
-        <v>48.77514818495014</v>
+        <v>372.5077531240106</v>
       </c>
       <c r="Y4" t="n">
-        <v>48.77514818495014</v>
+        <v>372.5077531240106</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>222.9924607400252</v>
+        <v>483.0536185083173</v>
       </c>
       <c r="C5" t="n">
-        <v>222.9924607400252</v>
+        <v>483.0536185083173</v>
       </c>
       <c r="D5" t="n">
-        <v>222.9924607400252</v>
+        <v>483.0536185083173</v>
       </c>
       <c r="E5" t="n">
-        <v>40.37326391226304</v>
+        <v>483.0536185083173</v>
       </c>
       <c r="F5" t="n">
-        <v>27.51922948264486</v>
+        <v>389.017808189447</v>
       </c>
       <c r="G5" t="n">
-        <v>18.39687801105209</v>
+        <v>156.7339949185873</v>
       </c>
       <c r="H5" t="n">
-        <v>18.39687801105209</v>
+        <v>156.7339949185873</v>
       </c>
       <c r="I5" t="n">
         <v>18.39687801105209</v>
@@ -4570,49 +4570,49 @@
         <v>163.0466509198802</v>
       </c>
       <c r="K5" t="n">
-        <v>163.0466509198802</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="L5" t="n">
-        <v>279.6756096381168</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="M5" t="n">
-        <v>507.3369750248864</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="N5" t="n">
-        <v>734.998340411656</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="O5" t="n">
-        <v>734.998340411656</v>
+        <v>692.182535165835</v>
       </c>
       <c r="P5" t="n">
-        <v>734.998340411656</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q5" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R5" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="S5" t="n">
-        <v>919.8439005526046</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="T5" t="n">
-        <v>919.8439005526046</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="U5" t="n">
-        <v>687.5600872817448</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="V5" t="n">
-        <v>455.276274010885</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="W5" t="n">
-        <v>455.276274010885</v>
+        <v>483.0536185083173</v>
       </c>
       <c r="X5" t="n">
-        <v>222.9924607400252</v>
+        <v>483.0536185083173</v>
       </c>
       <c r="Y5" t="n">
-        <v>222.9924607400252</v>
+        <v>483.0536185083173</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>508.8799023282195</v>
+        <v>299.5187221328762</v>
       </c>
       <c r="C6" t="n">
-        <v>358.2256718883117</v>
+        <v>299.5187221328762</v>
       </c>
       <c r="D6" t="n">
-        <v>228.136704509792</v>
+        <v>299.5187221328762</v>
       </c>
       <c r="E6" t="n">
-        <v>138.4566959391877</v>
+        <v>163.072231243764</v>
       </c>
       <c r="F6" t="n">
-        <v>138.4566959391877</v>
+        <v>38.64042512689575</v>
       </c>
       <c r="G6" t="n">
-        <v>18.39687801105209</v>
+        <v>38.64042512689575</v>
       </c>
       <c r="H6" t="n">
-        <v>18.39687801105209</v>
+        <v>38.64042512689575</v>
       </c>
       <c r="I6" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="J6" t="n">
-        <v>131.5118602307795</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K6" t="n">
-        <v>359.1732256175491</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="L6" t="n">
-        <v>359.1732256175491</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="M6" t="n">
-        <v>464.5211697790654</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="N6" t="n">
-        <v>692.182535165835</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="O6" t="n">
-        <v>692.182535165835</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="P6" t="n">
         <v>692.182535165835</v>
@@ -4679,19 +4679,19 @@
         <v>718.9430456495777</v>
       </c>
       <c r="U6" t="n">
-        <v>508.8799023282195</v>
+        <v>718.9430456495777</v>
       </c>
       <c r="V6" t="n">
-        <v>508.8799023282195</v>
+        <v>718.9430456495777</v>
       </c>
       <c r="W6" t="n">
-        <v>508.8799023282195</v>
+        <v>488.8257997828646</v>
       </c>
       <c r="X6" t="n">
-        <v>508.8799023282195</v>
+        <v>299.5187221328762</v>
       </c>
       <c r="Y6" t="n">
-        <v>508.8799023282195</v>
+        <v>299.5187221328762</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.601995945063</v>
+        <v>683.6996783622933</v>
       </c>
       <c r="C7" t="n">
-        <v>18.39687801105217</v>
+        <v>683.6996783622933</v>
       </c>
       <c r="D7" t="n">
-        <v>18.39687801105217</v>
+        <v>528.0665652648081</v>
       </c>
       <c r="E7" t="n">
-        <v>18.39687801105217</v>
+        <v>372.5077531240106</v>
       </c>
       <c r="F7" t="n">
-        <v>18.39687801105217</v>
+        <v>372.5077531240106</v>
       </c>
       <c r="G7" t="n">
-        <v>18.39687801105217</v>
+        <v>204.2536992234562</v>
       </c>
       <c r="H7" t="n">
-        <v>18.39687801105217</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="I7" t="n">
-        <v>18.39687801105217</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="J7" t="n">
-        <v>18.39687801105217</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K7" t="n">
         <v>100.231919120994</v>
@@ -4734,7 +4734,7 @@
         <v>264.3595589947938</v>
       </c>
       <c r="M7" t="n">
-        <v>450.6511373330579</v>
+        <v>450.6511373330578</v>
       </c>
       <c r="N7" t="n">
         <v>633.8407713642671</v>
@@ -4749,28 +4749,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R7" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="S7" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="T7" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="U7" t="n">
-        <v>919.8439005526046</v>
+        <v>683.6996783622933</v>
       </c>
       <c r="V7" t="n">
-        <v>919.8439005526046</v>
+        <v>683.6996783622933</v>
       </c>
       <c r="W7" t="n">
-        <v>829.2058890905807</v>
+        <v>683.6996783622933</v>
       </c>
       <c r="X7" t="n">
-        <v>596.9220758197209</v>
+        <v>683.6996783622933</v>
       </c>
       <c r="Y7" t="n">
-        <v>373.8100146363643</v>
+        <v>683.6996783622933</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>853.5854347311666</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="C8" t="n">
-        <v>853.5854347311666</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="D8" t="n">
-        <v>853.5854347311666</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="E8" t="n">
-        <v>853.5854347311666</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="F8" t="n">
-        <v>621.3016214603068</v>
+        <v>389.017808189447</v>
       </c>
       <c r="G8" t="n">
-        <v>389.017808189447</v>
+        <v>156.7339949185873</v>
       </c>
       <c r="H8" t="n">
         <v>156.7339949185873</v>
@@ -4804,52 +4804,52 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J8" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K8" t="n">
-        <v>236.8598043922958</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="L8" t="n">
-        <v>236.8598043922958</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="M8" t="n">
-        <v>236.8598043922958</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="N8" t="n">
-        <v>464.5211697790654</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="O8" t="n">
-        <v>692.182535165835</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="P8" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="Q8" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R8" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S8" t="n">
-        <v>881.8509868381266</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="T8" t="n">
-        <v>881.8509868381266</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="U8" t="n">
-        <v>881.8509868381266</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="V8" t="n">
-        <v>853.5854347311666</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="W8" t="n">
-        <v>853.5854347311666</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="X8" t="n">
-        <v>853.5854347311666</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="Y8" t="n">
-        <v>853.5854347311666</v>
+        <v>529.8297430530719</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>729.465444751684</v>
+        <v>262.8885020560559</v>
       </c>
       <c r="C9" t="n">
-        <v>578.8112143117762</v>
+        <v>262.8885020560559</v>
       </c>
       <c r="D9" t="n">
-        <v>448.7222469332565</v>
+        <v>262.8885020560559</v>
       </c>
       <c r="E9" t="n">
-        <v>312.2757560441443</v>
+        <v>262.8885020560559</v>
       </c>
       <c r="F9" t="n">
-        <v>187.8439499272761</v>
+        <v>138.4566959391877</v>
       </c>
       <c r="G9" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H9" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I9" t="n">
         <v>18.39687801105209</v>
@@ -4892,13 +4892,13 @@
         <v>359.1732256175491</v>
       </c>
       <c r="M9" t="n">
+        <v>359.1732256175491</v>
+      </c>
+      <c r="N9" t="n">
         <v>464.5211697790654</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>692.182535165835</v>
-      </c>
-      <c r="O9" t="n">
-        <v>919.8439005526046</v>
       </c>
       <c r="P9" t="n">
         <v>919.8439005526046</v>
@@ -4907,28 +4907,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R9" t="n">
-        <v>895.9268574506692</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S9" t="n">
-        <v>895.9268574506692</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T9" t="n">
-        <v>895.9268574506692</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U9" t="n">
-        <v>895.9268574506692</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V9" t="n">
-        <v>895.9268574506692</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W9" t="n">
-        <v>895.9268574506692</v>
+        <v>783.3061310714984</v>
       </c>
       <c r="X9" t="n">
-        <v>895.9268574506692</v>
+        <v>593.99905342151</v>
       </c>
       <c r="Y9" t="n">
-        <v>881.2617791926453</v>
+        <v>414.6848364970172</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>361.6598951127747</v>
+        <v>818.4869254147573</v>
       </c>
       <c r="C10" t="n">
-        <v>361.6598951127747</v>
+        <v>818.4869254147573</v>
       </c>
       <c r="D10" t="n">
-        <v>361.6598951127747</v>
+        <v>818.4869254147573</v>
       </c>
       <c r="E10" t="n">
-        <v>206.1010829719772</v>
+        <v>662.9281132739598</v>
       </c>
       <c r="F10" t="n">
-        <v>48.77514818495014</v>
+        <v>505.6021784869328</v>
       </c>
       <c r="G10" t="n">
-        <v>48.77514818495014</v>
+        <v>337.3481245863783</v>
       </c>
       <c r="H10" t="n">
-        <v>48.77514818495014</v>
+        <v>181.8695735478723</v>
       </c>
       <c r="I10" t="n">
         <v>48.77514818495014</v>
@@ -4986,28 +4986,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R10" t="n">
-        <v>919.8439005526046</v>
+        <v>818.4869254147573</v>
       </c>
       <c r="S10" t="n">
-        <v>919.8439005526046</v>
+        <v>818.4869254147573</v>
       </c>
       <c r="T10" t="n">
-        <v>919.8439005526046</v>
+        <v>818.4869254147573</v>
       </c>
       <c r="U10" t="n">
-        <v>919.8439005526046</v>
+        <v>818.4869254147573</v>
       </c>
       <c r="V10" t="n">
-        <v>826.2275216544942</v>
+        <v>818.4869254147573</v>
       </c>
       <c r="W10" t="n">
-        <v>593.9437083836344</v>
+        <v>818.4869254147573</v>
       </c>
       <c r="X10" t="n">
-        <v>361.6598951127747</v>
+        <v>818.4869254147573</v>
       </c>
       <c r="Y10" t="n">
-        <v>361.6598951127747</v>
+        <v>818.4869254147573</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1490.729398194443</v>
+        <v>884.3846708712497</v>
       </c>
       <c r="C11" t="n">
-        <v>1097.553896697374</v>
+        <v>884.3846708712497</v>
       </c>
       <c r="D11" t="n">
-        <v>947.7858275521924</v>
+        <v>498.9435420879174</v>
       </c>
       <c r="E11" t="n">
-        <v>545.2023026687369</v>
+        <v>96.36001720446194</v>
       </c>
       <c r="F11" t="n">
-        <v>128.3078641987147</v>
+        <v>96.36001720446194</v>
       </c>
       <c r="G11" t="n">
-        <v>128.3078641987147</v>
+        <v>96.36001720446194</v>
       </c>
       <c r="H11" t="n">
-        <v>128.3078641987147</v>
+        <v>96.36001720446194</v>
       </c>
       <c r="I11" t="n">
         <v>45.75429705970478</v>
       </c>
       <c r="J11" t="n">
-        <v>310.7682832343071</v>
+        <v>49.61547076255636</v>
       </c>
       <c r="K11" t="n">
-        <v>381.1397256447706</v>
+        <v>588.9925812718953</v>
       </c>
       <c r="L11" t="n">
-        <v>947.3491517586172</v>
+        <v>661.0725377688332</v>
       </c>
       <c r="M11" t="n">
-        <v>1513.558577872464</v>
+        <v>761.8605120310956</v>
       </c>
       <c r="N11" t="n">
-        <v>2079.76800398631</v>
+        <v>867.2783165337457</v>
       </c>
       <c r="O11" t="n">
-        <v>2170.643127670324</v>
+        <v>1433.487742647592</v>
       </c>
       <c r="P11" t="n">
-        <v>2225.777292706016</v>
+        <v>1985.607832583322</v>
       </c>
       <c r="Q11" t="n">
-        <v>2235.868469241344</v>
+        <v>2287.714852985239</v>
       </c>
       <c r="R11" t="n">
         <v>2287.714852985239</v>
       </c>
       <c r="S11" t="n">
-        <v>2287.714852985239</v>
+        <v>2154.173676899125</v>
       </c>
       <c r="T11" t="n">
-        <v>2287.714852985239</v>
+        <v>1937.007099206917</v>
       </c>
       <c r="U11" t="n">
-        <v>2287.714852985239</v>
+        <v>1681.370125662045</v>
       </c>
       <c r="V11" t="n">
-        <v>2287.714852985239</v>
+        <v>1681.370125662045</v>
       </c>
       <c r="W11" t="n">
-        <v>2287.714852985239</v>
+        <v>1681.370125662045</v>
       </c>
       <c r="X11" t="n">
-        <v>2287.714852985239</v>
+        <v>1681.370125662045</v>
       </c>
       <c r="Y11" t="n">
-        <v>1891.22414390584</v>
+        <v>1284.879416582647</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>810.2139703060758</v>
+        <v>810.2139703060761</v>
       </c>
       <c r="C12" t="n">
-        <v>659.559739866168</v>
+        <v>659.5597398661683</v>
       </c>
       <c r="D12" t="n">
-        <v>529.4707724876483</v>
+        <v>529.4707724876487</v>
       </c>
       <c r="E12" t="n">
-        <v>393.024281598536</v>
+        <v>393.0242815985364</v>
       </c>
       <c r="F12" t="n">
-        <v>268.5924754816679</v>
+        <v>268.5924754816682</v>
       </c>
       <c r="G12" t="n">
-        <v>149.3068441931972</v>
+        <v>149.3068441931975</v>
       </c>
       <c r="H12" t="n">
-        <v>68.48644086635053</v>
+        <v>68.48644086635085</v>
       </c>
       <c r="I12" t="n">
         <v>45.75429705970478</v>
       </c>
       <c r="J12" t="n">
-        <v>45.75429705970478</v>
+        <v>230.5573801231174</v>
       </c>
       <c r="K12" t="n">
-        <v>488.0198257764949</v>
+        <v>672.8229088399075</v>
       </c>
       <c r="L12" t="n">
-        <v>1054.229251890341</v>
+        <v>748.4150076253961</v>
       </c>
       <c r="M12" t="n">
-        <v>1155.023630036022</v>
+        <v>849.2093857710768</v>
       </c>
       <c r="N12" t="n">
-        <v>1267.851354643422</v>
+        <v>962.0371103784767</v>
       </c>
       <c r="O12" t="n">
-        <v>1706.750504680252</v>
+        <v>1528.246536492323</v>
       </c>
       <c r="P12" t="n">
-        <v>2257.265635735091</v>
+        <v>1932.822272555846</v>
       </c>
       <c r="Q12" t="n">
         <v>2264.045007068566</v>
@@ -5165,7 +5165,7 @@
         <v>1141.32452167153</v>
       </c>
       <c r="Y12" t="n">
-        <v>962.0103047470371</v>
+        <v>962.0103047470375</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>159.3299564731594</v>
+        <v>45.75429705970478</v>
       </c>
       <c r="C13" t="n">
-        <v>159.3299564731594</v>
+        <v>45.75429705970478</v>
       </c>
       <c r="D13" t="n">
-        <v>159.3299564731594</v>
+        <v>45.75429705970478</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3299564731594</v>
+        <v>45.75429705970478</v>
       </c>
       <c r="F13" t="n">
-        <v>159.3299564731594</v>
+        <v>45.75429705970478</v>
       </c>
       <c r="G13" t="n">
-        <v>159.3299564731594</v>
+        <v>45.75429705970478</v>
       </c>
       <c r="H13" t="n">
-        <v>159.3299564731594</v>
+        <v>45.75429705970478</v>
       </c>
       <c r="I13" t="n">
         <v>45.75429705970478</v>
@@ -5223,28 +5223,28 @@
         <v>1548.069611585536</v>
       </c>
       <c r="R13" t="n">
-        <v>1453.352363568194</v>
+        <v>1548.069611585536</v>
       </c>
       <c r="S13" t="n">
-        <v>1261.847487225087</v>
+        <v>1356.56473524243</v>
       </c>
       <c r="T13" t="n">
-        <v>1028.901657883119</v>
+        <v>1123.618905900461</v>
       </c>
       <c r="U13" t="n">
-        <v>743.4982689653148</v>
+        <v>838.2155169826574</v>
       </c>
       <c r="V13" t="n">
-        <v>477.518923786139</v>
+        <v>572.2361718034816</v>
       </c>
       <c r="W13" t="n">
-        <v>194.1885217173166</v>
+        <v>288.9057697346593</v>
       </c>
       <c r="X13" t="n">
-        <v>194.1885217173166</v>
+        <v>54.82544751764235</v>
       </c>
       <c r="Y13" t="n">
-        <v>194.1885217173166</v>
+        <v>54.82544751764235</v>
       </c>
     </row>
     <row r="14">
@@ -5254,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1309.508019362572</v>
+        <v>152.8252565078247</v>
       </c>
       <c r="C14" t="n">
-        <v>916.3325178655024</v>
+        <v>45.75429705970478</v>
       </c>
       <c r="D14" t="n">
-        <v>530.8913890821701</v>
+        <v>45.75429705970478</v>
       </c>
       <c r="E14" t="n">
-        <v>128.3078641987147</v>
+        <v>45.75429705970478</v>
       </c>
       <c r="F14" t="n">
-        <v>128.3078641987147</v>
+        <v>45.75429705970478</v>
       </c>
       <c r="G14" t="n">
-        <v>128.3078641987147</v>
+        <v>45.75429705970478</v>
       </c>
       <c r="H14" t="n">
-        <v>128.3078641987147</v>
+        <v>45.75429705970478</v>
       </c>
       <c r="I14" t="n">
         <v>45.75429705970478</v>
       </c>
       <c r="J14" t="n">
-        <v>49.61547076255636</v>
+        <v>310.7682832343071</v>
       </c>
       <c r="K14" t="n">
-        <v>88.38240609698859</v>
+        <v>850.1453937436461</v>
       </c>
       <c r="L14" t="n">
-        <v>654.5918322108352</v>
+        <v>1416.354819857493</v>
       </c>
       <c r="M14" t="n">
-        <v>1220.801258324682</v>
+        <v>1517.142794119755</v>
       </c>
       <c r="N14" t="n">
-        <v>1787.010684438528</v>
+        <v>2083.352220233602</v>
       </c>
       <c r="O14" t="n">
-        <v>2170.643127670324</v>
+        <v>2174.227343917615</v>
       </c>
       <c r="P14" t="n">
-        <v>2225.777292706016</v>
+        <v>2277.623676449911</v>
       </c>
       <c r="Q14" t="n">
-        <v>2235.868469241344</v>
+        <v>2287.714852985239</v>
       </c>
       <c r="R14" t="n">
         <v>2287.714852985239</v>
@@ -5314,16 +5314,16 @@
         <v>1681.370125662045</v>
       </c>
       <c r="V14" t="n">
-        <v>1681.370125662045</v>
+        <v>1339.263316365564</v>
       </c>
       <c r="W14" t="n">
-        <v>1681.370125662045</v>
+        <v>1339.263316365564</v>
       </c>
       <c r="X14" t="n">
-        <v>1681.370125662045</v>
+        <v>949.8107112986205</v>
       </c>
       <c r="Y14" t="n">
-        <v>1681.370125662045</v>
+        <v>553.3200022192216</v>
       </c>
     </row>
     <row r="15">
@@ -5333,16 +5333,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>810.2139703060758</v>
+        <v>810.2139703060761</v>
       </c>
       <c r="C15" t="n">
-        <v>659.559739866168</v>
+        <v>659.5597398661683</v>
       </c>
       <c r="D15" t="n">
-        <v>529.4707724876483</v>
+        <v>529.4707724876487</v>
       </c>
       <c r="E15" t="n">
-        <v>393.024281598536</v>
+        <v>393.0242815985364</v>
       </c>
       <c r="F15" t="n">
         <v>268.5924754816679</v>
@@ -5357,25 +5357,25 @@
         <v>45.75429705970478</v>
       </c>
       <c r="J15" t="n">
-        <v>45.75429705970478</v>
+        <v>230.5573801231174</v>
       </c>
       <c r="K15" t="n">
-        <v>488.0198257764949</v>
+        <v>264.3827967976811</v>
       </c>
       <c r="L15" t="n">
-        <v>1054.229251890341</v>
+        <v>830.5922229115276</v>
       </c>
       <c r="M15" t="n">
-        <v>1155.023630036022</v>
+        <v>931.3866010572083</v>
       </c>
       <c r="N15" t="n">
-        <v>1267.851354643422</v>
+        <v>1044.214325664608</v>
       </c>
       <c r="O15" t="n">
-        <v>1706.750504680252</v>
+        <v>1610.423751778455</v>
       </c>
       <c r="P15" t="n">
-        <v>2257.265635735091</v>
+        <v>1932.822272555846</v>
       </c>
       <c r="Q15" t="n">
         <v>2264.045007068566</v>
@@ -5402,7 +5402,7 @@
         <v>1141.32452167153</v>
       </c>
       <c r="Y15" t="n">
-        <v>962.0103047470371</v>
+        <v>962.0103047470375</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1115.365824331329</v>
+        <v>45.75429705970478</v>
       </c>
       <c r="C16" t="n">
-        <v>945.1607063973179</v>
+        <v>45.75429705970478</v>
       </c>
       <c r="D16" t="n">
-        <v>789.5275932998327</v>
+        <v>45.75429705970478</v>
       </c>
       <c r="E16" t="n">
-        <v>633.9687811590352</v>
+        <v>45.75429705970478</v>
       </c>
       <c r="F16" t="n">
-        <v>476.6428463720081</v>
+        <v>45.75429705970478</v>
       </c>
       <c r="G16" t="n">
-        <v>309.0378445435339</v>
+        <v>45.75429705970478</v>
       </c>
       <c r="H16" t="n">
-        <v>159.3299564731594</v>
+        <v>45.75429705970478</v>
       </c>
       <c r="I16" t="n">
         <v>45.75429705970478</v>
@@ -5466,22 +5466,22 @@
         <v>1548.069611585536</v>
       </c>
       <c r="T16" t="n">
-        <v>1548.069611585536</v>
+        <v>1315.123782243568</v>
       </c>
       <c r="U16" t="n">
-        <v>1548.069611585536</v>
+        <v>1029.720393325764</v>
       </c>
       <c r="V16" t="n">
-        <v>1548.069611585536</v>
+        <v>763.7410481465885</v>
       </c>
       <c r="W16" t="n">
-        <v>1523.685904205987</v>
+        <v>480.4106460777661</v>
       </c>
       <c r="X16" t="n">
-        <v>1523.685904205987</v>
+        <v>246.3303238607492</v>
       </c>
       <c r="Y16" t="n">
-        <v>1300.57384302263</v>
+        <v>45.75429705970478</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>968.2642813338512</v>
+        <v>855.8242370267965</v>
       </c>
       <c r="C17" t="n">
-        <v>968.2642813338512</v>
+        <v>462.648735529727</v>
       </c>
       <c r="D17" t="n">
-        <v>582.8231525505189</v>
+        <v>462.648735529727</v>
       </c>
       <c r="E17" t="n">
-        <v>582.8231525505189</v>
+        <v>462.648735529727</v>
       </c>
       <c r="F17" t="n">
-        <v>582.8231525505189</v>
+        <v>45.75429705970478</v>
       </c>
       <c r="G17" t="n">
-        <v>437.572335316566</v>
+        <v>45.75429705970478</v>
       </c>
       <c r="H17" t="n">
-        <v>128.3078641987147</v>
+        <v>45.75429705970478</v>
       </c>
       <c r="I17" t="n">
         <v>45.75429705970478</v>
       </c>
       <c r="J17" t="n">
-        <v>49.61547076255636</v>
+        <v>310.7682832343071</v>
       </c>
       <c r="K17" t="n">
-        <v>88.38240609698859</v>
+        <v>349.5352185687393</v>
       </c>
       <c r="L17" t="n">
-        <v>654.5918322108352</v>
+        <v>915.7446446825859</v>
       </c>
       <c r="M17" t="n">
-        <v>1220.801258324682</v>
+        <v>1481.954070796432</v>
       </c>
       <c r="N17" t="n">
-        <v>1787.010684438528</v>
+        <v>2048.163496910279</v>
       </c>
       <c r="O17" t="n">
-        <v>2222.489511414219</v>
+        <v>2139.038620594292</v>
       </c>
       <c r="P17" t="n">
-        <v>2277.623676449911</v>
+        <v>2225.777292706016</v>
       </c>
       <c r="Q17" t="n">
-        <v>2287.714852985239</v>
+        <v>2235.868469241344</v>
       </c>
       <c r="R17" t="n">
         <v>2287.714852985239</v>
       </c>
       <c r="S17" t="n">
-        <v>2154.173676899125</v>
+        <v>2287.714852985239</v>
       </c>
       <c r="T17" t="n">
-        <v>1937.007099206917</v>
+        <v>2070.54827529303</v>
       </c>
       <c r="U17" t="n">
-        <v>1681.370125662045</v>
+        <v>2070.54827529303</v>
       </c>
       <c r="V17" t="n">
-        <v>1339.263316365564</v>
+        <v>2070.54827529303</v>
       </c>
       <c r="W17" t="n">
-        <v>968.2642813338512</v>
+        <v>2042.262296884535</v>
       </c>
       <c r="X17" t="n">
-        <v>968.2642813338512</v>
+        <v>1652.809691817592</v>
       </c>
       <c r="Y17" t="n">
-        <v>968.2642813338512</v>
+        <v>1256.318982738193</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>45.75429705970478</v>
       </c>
       <c r="J18" t="n">
-        <v>45.75429705970478</v>
+        <v>230.5573801231174</v>
       </c>
       <c r="K18" t="n">
-        <v>79.57971373426851</v>
+        <v>672.8229088399075</v>
       </c>
       <c r="L18" t="n">
-        <v>645.789139848115</v>
+        <v>748.4150076253961</v>
       </c>
       <c r="M18" t="n">
-        <v>746.5835179937957</v>
+        <v>849.2093857710768</v>
       </c>
       <c r="N18" t="n">
-        <v>1312.792944107642</v>
+        <v>962.0371103784767</v>
       </c>
       <c r="O18" t="n">
-        <v>1706.750504680252</v>
+        <v>1382.307141501007</v>
       </c>
       <c r="P18" t="n">
-        <v>2257.265635735091</v>
+        <v>1932.822272555846</v>
       </c>
       <c r="Q18" t="n">
         <v>2264.045007068566</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>370.6852336752061</v>
+        <v>61.12230516944791</v>
       </c>
       <c r="C19" t="n">
-        <v>370.6852336752061</v>
+        <v>61.12230516944791</v>
       </c>
       <c r="D19" t="n">
-        <v>370.6852336752061</v>
+        <v>61.12230516944791</v>
       </c>
       <c r="E19" t="n">
-        <v>370.6852336752061</v>
+        <v>61.12230516944791</v>
       </c>
       <c r="F19" t="n">
-        <v>213.359298888179</v>
+        <v>61.12230516944791</v>
       </c>
       <c r="G19" t="n">
-        <v>45.75429705970478</v>
+        <v>61.12230516944791</v>
       </c>
       <c r="H19" t="n">
         <v>45.75429705970478</v>
@@ -5697,28 +5697,28 @@
         <v>1548.069611585536</v>
       </c>
       <c r="R19" t="n">
-        <v>1453.352363568194</v>
+        <v>1548.069611585536</v>
       </c>
       <c r="S19" t="n">
-        <v>1261.847487225087</v>
+        <v>1548.069611585536</v>
       </c>
       <c r="T19" t="n">
-        <v>1111.208019144402</v>
+        <v>1315.123782243568</v>
       </c>
       <c r="U19" t="n">
-        <v>1111.208019144402</v>
+        <v>1029.720393325764</v>
       </c>
       <c r="V19" t="n">
-        <v>1111.208019144402</v>
+        <v>763.7410481465885</v>
       </c>
       <c r="W19" t="n">
-        <v>827.8776170755797</v>
+        <v>480.4106460777661</v>
       </c>
       <c r="X19" t="n">
-        <v>593.7972948585627</v>
+        <v>246.3303238607492</v>
       </c>
       <c r="Y19" t="n">
-        <v>370.6852336752061</v>
+        <v>246.3303238607492</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>849.2881405719381</v>
+        <v>967.7356170413864</v>
       </c>
       <c r="C20" t="n">
-        <v>849.2881405719381</v>
+        <v>947.7858275521924</v>
       </c>
       <c r="D20" t="n">
-        <v>849.2881405719381</v>
+        <v>947.7858275521924</v>
       </c>
       <c r="E20" t="n">
-        <v>849.2881405719381</v>
+        <v>545.2023026687369</v>
       </c>
       <c r="F20" t="n">
-        <v>849.2881405719381</v>
+        <v>128.3078641987147</v>
       </c>
       <c r="G20" t="n">
-        <v>437.572335316566</v>
+        <v>128.3078641987147</v>
       </c>
       <c r="H20" t="n">
         <v>128.3078641987147</v>
@@ -5752,25 +5752,25 @@
         <v>45.75429705970478</v>
       </c>
       <c r="J20" t="n">
-        <v>49.61547076255636</v>
+        <v>310.7682832343071</v>
       </c>
       <c r="K20" t="n">
-        <v>88.38240609698859</v>
+        <v>349.5352185687393</v>
       </c>
       <c r="L20" t="n">
-        <v>654.5918322108352</v>
+        <v>421.6151750656771</v>
       </c>
       <c r="M20" t="n">
-        <v>1220.801258324682</v>
+        <v>522.4031493279396</v>
       </c>
       <c r="N20" t="n">
-        <v>1787.010684438528</v>
+        <v>779.5485050812829</v>
       </c>
       <c r="O20" t="n">
-        <v>2170.643127670324</v>
+        <v>1345.757931195129</v>
       </c>
       <c r="P20" t="n">
-        <v>2225.777292706016</v>
+        <v>1897.878021130859</v>
       </c>
       <c r="Q20" t="n">
         <v>2235.868469241344</v>
@@ -5782,22 +5782,22 @@
         <v>2154.173676899125</v>
       </c>
       <c r="T20" t="n">
-        <v>2035.726200429677</v>
+        <v>2154.173676899125</v>
       </c>
       <c r="U20" t="n">
-        <v>2035.726200429677</v>
+        <v>2154.173676899125</v>
       </c>
       <c r="V20" t="n">
-        <v>2035.726200429677</v>
+        <v>2154.173676899125</v>
       </c>
       <c r="W20" t="n">
-        <v>2035.726200429677</v>
+        <v>2154.173676899125</v>
       </c>
       <c r="X20" t="n">
-        <v>1646.273595362734</v>
+        <v>1764.721071832182</v>
       </c>
       <c r="Y20" t="n">
-        <v>1249.782886283335</v>
+        <v>1368.230362752783</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>45.75429705970478</v>
       </c>
       <c r="J21" t="n">
-        <v>45.75429705970478</v>
+        <v>230.5573801231174</v>
       </c>
       <c r="K21" t="n">
-        <v>79.57971373426851</v>
+        <v>672.8229088399075</v>
       </c>
       <c r="L21" t="n">
-        <v>523.6259721429044</v>
+        <v>1239.032334953754</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.835398256751</v>
+        <v>1339.826713099435</v>
       </c>
       <c r="N21" t="n">
-        <v>1656.044824370598</v>
+        <v>1452.654437706835</v>
       </c>
       <c r="O21" t="n">
-        <v>2222.254250484444</v>
+        <v>1541.426896158257</v>
       </c>
       <c r="P21" t="n">
-        <v>2280.935481651764</v>
+        <v>1932.822272555846</v>
       </c>
       <c r="Q21" t="n">
-        <v>2287.714852985239</v>
+        <v>2264.045007068566</v>
       </c>
       <c r="R21" t="n">
         <v>2287.714852985239</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>681.8771589134888</v>
+        <v>237.0558057131358</v>
       </c>
       <c r="C22" t="n">
-        <v>681.8771589134888</v>
+        <v>237.0558057131358</v>
       </c>
       <c r="D22" t="n">
-        <v>526.2440458160036</v>
+        <v>237.0558057131358</v>
       </c>
       <c r="E22" t="n">
-        <v>370.6852336752061</v>
+        <v>237.0558057131358</v>
       </c>
       <c r="F22" t="n">
-        <v>213.359298888179</v>
+        <v>79.7298709261087</v>
       </c>
       <c r="G22" t="n">
-        <v>45.75429705970478</v>
+        <v>79.7298709261087</v>
       </c>
       <c r="H22" t="n">
-        <v>45.75429705970478</v>
+        <v>79.7298709261087</v>
       </c>
       <c r="I22" t="n">
         <v>45.75429705970478</v>
@@ -5934,28 +5934,28 @@
         <v>1548.069611585536</v>
       </c>
       <c r="R22" t="n">
-        <v>1548.069611585536</v>
+        <v>1453.352363568194</v>
       </c>
       <c r="S22" t="n">
-        <v>1548.069611585536</v>
+        <v>1261.847487225087</v>
       </c>
       <c r="T22" t="n">
-        <v>1548.069611585536</v>
+        <v>1028.901657883119</v>
       </c>
       <c r="U22" t="n">
-        <v>1262.666222667733</v>
+        <v>743.4982689653148</v>
       </c>
       <c r="V22" t="n">
-        <v>996.6868774885569</v>
+        <v>743.4982689653148</v>
       </c>
       <c r="W22" t="n">
-        <v>713.3564754197346</v>
+        <v>460.1678668964924</v>
       </c>
       <c r="X22" t="n">
-        <v>713.3564754197346</v>
+        <v>460.1678668964924</v>
       </c>
       <c r="Y22" t="n">
-        <v>681.8771589134888</v>
+        <v>237.0558057131358</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2081.42122601015</v>
+        <v>2466.031783540751</v>
       </c>
       <c r="C23" t="n">
-        <v>1688.245724513081</v>
+        <v>2072.856282043682</v>
       </c>
       <c r="D23" t="n">
-        <v>1302.804595729748</v>
+        <v>1687.41515326035</v>
       </c>
       <c r="E23" t="n">
-        <v>900.2210708462929</v>
+        <v>1284.831628376894</v>
       </c>
       <c r="F23" t="n">
-        <v>483.3266323762707</v>
+        <v>867.9371899068718</v>
       </c>
       <c r="G23" t="n">
         <v>483.3266323762707</v>
@@ -5989,25 +5989,25 @@
         <v>91.50859411940958</v>
       </c>
       <c r="J23" t="n">
-        <v>122.1237438430676</v>
+        <v>356.5225802940119</v>
       </c>
       <c r="K23" t="n">
-        <v>661.5008543524066</v>
+        <v>895.8996908033509</v>
       </c>
       <c r="L23" t="n">
-        <v>1378.61679060106</v>
+        <v>1613.015627052004</v>
       </c>
       <c r="M23" t="n">
-        <v>2173.633465989653</v>
+        <v>2408.032302440598</v>
       </c>
       <c r="N23" t="n">
-        <v>2954.489860554171</v>
+        <v>3188.888697005116</v>
       </c>
       <c r="O23" t="n">
-        <v>3633.472784180369</v>
+        <v>3867.871620631313</v>
       </c>
       <c r="P23" t="n">
-        <v>4185.592874116099</v>
+        <v>4419.991710567043</v>
       </c>
       <c r="Q23" t="n">
         <v>4523.583322226583</v>
@@ -6016,25 +6016,25 @@
         <v>4575.429705970479</v>
       </c>
       <c r="S23" t="n">
-        <v>4453.768681433163</v>
+        <v>4441.888529884365</v>
       </c>
       <c r="T23" t="n">
-        <v>4236.602103740955</v>
+        <v>4224.721952192157</v>
       </c>
       <c r="U23" t="n">
-        <v>3980.965130196083</v>
+        <v>3969.084978647285</v>
       </c>
       <c r="V23" t="n">
-        <v>3638.858320899601</v>
+        <v>3626.978169350804</v>
       </c>
       <c r="W23" t="n">
-        <v>3267.859285867889</v>
+        <v>3255.979134319091</v>
       </c>
       <c r="X23" t="n">
-        <v>2878.406680800946</v>
+        <v>2866.526529252148</v>
       </c>
       <c r="Y23" t="n">
-        <v>2481.915971721547</v>
+        <v>2866.526529252148</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>91.50859411940958</v>
       </c>
       <c r="J24" t="n">
-        <v>91.50859411940958</v>
+        <v>276.3116771828222</v>
       </c>
       <c r="K24" t="n">
-        <v>125.3340107939733</v>
+        <v>718.5772058996124</v>
       </c>
       <c r="L24" t="n">
-        <v>773.6519388661242</v>
+        <v>1125.666877356209</v>
       </c>
       <c r="M24" t="n">
-        <v>966.2934987068265</v>
+        <v>1226.461255501889</v>
       </c>
       <c r="N24" t="n">
-        <v>1079.121223314226</v>
+        <v>1339.288980109289</v>
       </c>
       <c r="O24" t="n">
-        <v>1776.17464765663</v>
+        <v>1428.061438560712</v>
       </c>
       <c r="P24" t="n">
-        <v>2326.689778711469</v>
+        <v>1978.57656961555</v>
       </c>
       <c r="Q24" t="n">
-        <v>2333.469150044943</v>
+        <v>2309.799304128271</v>
       </c>
       <c r="R24" t="n">
         <v>2333.469150044943</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>91.50859411940958</v>
+        <v>669.2275973597923</v>
       </c>
       <c r="C25" t="n">
-        <v>91.50859411940958</v>
+        <v>669.2275973597923</v>
       </c>
       <c r="D25" t="n">
-        <v>91.50859411940958</v>
+        <v>517.9690004606888</v>
       </c>
       <c r="E25" t="n">
-        <v>91.50859411940958</v>
+        <v>362.4101883198913</v>
       </c>
       <c r="F25" t="n">
-        <v>91.50859411940958</v>
+        <v>205.0842535328642</v>
       </c>
       <c r="G25" t="n">
-        <v>91.50859411940958</v>
+        <v>205.0842535328642</v>
       </c>
       <c r="H25" t="n">
-        <v>91.50859411940958</v>
+        <v>205.0842535328642</v>
       </c>
       <c r="I25" t="n">
         <v>91.50859411940958</v>
@@ -6171,28 +6171,28 @@
         <v>1593.823908645241</v>
       </c>
       <c r="R25" t="n">
-        <v>1499.106660627898</v>
+        <v>1593.823908645241</v>
       </c>
       <c r="S25" t="n">
-        <v>1307.601784284792</v>
+        <v>1593.823908645241</v>
       </c>
       <c r="T25" t="n">
-        <v>1307.601784284792</v>
+        <v>1360.878079303273</v>
       </c>
       <c r="U25" t="n">
-        <v>1098.010724767781</v>
+        <v>1360.878079303273</v>
       </c>
       <c r="V25" t="n">
-        <v>832.0313795886054</v>
+        <v>1360.878079303273</v>
       </c>
       <c r="W25" t="n">
-        <v>548.7009775197831</v>
+        <v>1077.54767723445</v>
       </c>
       <c r="X25" t="n">
-        <v>314.6206553027662</v>
+        <v>1077.54767723445</v>
       </c>
       <c r="Y25" t="n">
-        <v>91.50859411940958</v>
+        <v>854.4356160510936</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1587.295279363019</v>
+        <v>1293.539998090613</v>
       </c>
       <c r="C26" t="n">
-        <v>1587.295279363019</v>
+        <v>1293.539998090613</v>
       </c>
       <c r="D26" t="n">
-        <v>1201.854150579687</v>
+        <v>1293.539998090613</v>
       </c>
       <c r="E26" t="n">
-        <v>799.270625696231</v>
+        <v>1293.539998090613</v>
       </c>
       <c r="F26" t="n">
-        <v>382.3761872262087</v>
+        <v>876.6455596205908</v>
       </c>
       <c r="G26" t="n">
-        <v>382.3761872262087</v>
+        <v>464.9297543652186</v>
       </c>
       <c r="H26" t="n">
-        <v>73.11171610835748</v>
+        <v>155.6652832473674</v>
       </c>
       <c r="I26" t="n">
         <v>73.11171610835748</v>
       </c>
       <c r="J26" t="n">
-        <v>76.97288981120907</v>
+        <v>338.1257022829598</v>
       </c>
       <c r="K26" t="n">
-        <v>115.7398251456413</v>
+        <v>376.892637617392</v>
       </c>
       <c r="L26" t="n">
-        <v>832.8557613942949</v>
+        <v>1094.008573866045</v>
       </c>
       <c r="M26" t="n">
-        <v>1627.872436782888</v>
+        <v>1889.025249254638</v>
       </c>
       <c r="N26" t="n">
-        <v>2408.728831347406</v>
+        <v>2669.881643819157</v>
       </c>
       <c r="O26" t="n">
-        <v>3087.711754973604</v>
+        <v>2765.47526737166</v>
       </c>
       <c r="P26" t="n">
-        <v>3265.748973563494</v>
+        <v>3317.59535730739</v>
       </c>
       <c r="Q26" t="n">
-        <v>3603.739421673979</v>
+        <v>3655.585805417874</v>
       </c>
       <c r="R26" t="n">
         <v>3655.585805417874</v>
       </c>
       <c r="S26" t="n">
-        <v>3655.585805417874</v>
+        <v>3522.04462933176</v>
       </c>
       <c r="T26" t="n">
-        <v>3438.419227725665</v>
+        <v>3304.878051639552</v>
       </c>
       <c r="U26" t="n">
-        <v>3182.782254180794</v>
+        <v>3049.24107809468</v>
       </c>
       <c r="V26" t="n">
-        <v>2840.675444884312</v>
+        <v>2707.134268798199</v>
       </c>
       <c r="W26" t="n">
-        <v>2469.6764098526</v>
+        <v>2336.135233766486</v>
       </c>
       <c r="X26" t="n">
-        <v>2384.280734153815</v>
+        <v>2090.525452881409</v>
       </c>
       <c r="Y26" t="n">
-        <v>1987.790025074416</v>
+        <v>1694.03474380201</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>73.11171610835748</v>
       </c>
       <c r="J27" t="n">
-        <v>73.11171610835748</v>
+        <v>257.91479917177</v>
       </c>
       <c r="K27" t="n">
-        <v>106.9371327829212</v>
+        <v>482.6219171896785</v>
       </c>
       <c r="L27" t="n">
-        <v>182.5292315684098</v>
+        <v>1130.939845261829</v>
       </c>
       <c r="M27" t="n">
-        <v>1002.55851016959</v>
+        <v>1231.73422340751</v>
       </c>
       <c r="N27" t="n">
-        <v>1855.682597713174</v>
+        <v>1344.56194801491</v>
       </c>
       <c r="O27" t="n">
-        <v>2249.611669533097</v>
+        <v>1433.334406466332</v>
       </c>
       <c r="P27" t="n">
-        <v>2308.292900700416</v>
+        <v>1983.849537521171</v>
       </c>
       <c r="Q27" t="n">
         <v>2315.072272033891</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2897.04378713217</v>
+        <v>987.1644312391838</v>
       </c>
       <c r="C28" t="n">
-        <v>2897.04378713217</v>
+        <v>816.9593133051731</v>
       </c>
       <c r="D28" t="n">
-        <v>2897.04378713217</v>
+        <v>661.3262002076879</v>
       </c>
       <c r="E28" t="n">
-        <v>2741.484974991373</v>
+        <v>661.3262002076879</v>
       </c>
       <c r="F28" t="n">
-        <v>2584.159040204346</v>
+        <v>504.0002654206608</v>
       </c>
       <c r="G28" t="n">
-        <v>2416.554038375872</v>
+        <v>336.3952635921866</v>
       </c>
       <c r="H28" t="n">
-        <v>2266.846150305497</v>
+        <v>186.6873755218121</v>
       </c>
       <c r="I28" t="n">
-        <v>2153.270490892043</v>
+        <v>73.11171610835748</v>
       </c>
       <c r="J28" t="n">
-        <v>2168.471558958906</v>
+        <v>88.31278417522087</v>
       </c>
       <c r="K28" t="n">
-        <v>2324.21402970621</v>
+        <v>244.0552549225248</v>
       </c>
       <c r="L28" t="n">
-        <v>2582.917734078399</v>
+        <v>502.7589592947143</v>
       </c>
       <c r="M28" t="n">
-        <v>2868.92651188748</v>
+        <v>788.7677371037948</v>
       </c>
       <c r="N28" t="n">
-        <v>3149.462293264989</v>
+        <v>1069.303518481304</v>
       </c>
       <c r="O28" t="n">
-        <v>3402.081983311526</v>
+        <v>1321.923208527841</v>
       </c>
       <c r="P28" t="n">
-        <v>3598.895899001677</v>
+        <v>1518.737124217992</v>
       </c>
       <c r="Q28" t="n">
-        <v>3655.585805417874</v>
+        <v>1575.427030634189</v>
       </c>
       <c r="R28" t="n">
-        <v>3655.585805417874</v>
+        <v>1575.427030634189</v>
       </c>
       <c r="S28" t="n">
-        <v>3655.585805417874</v>
+        <v>1383.922154291082</v>
       </c>
       <c r="T28" t="n">
-        <v>3655.585805417874</v>
+        <v>1150.976324949114</v>
       </c>
       <c r="U28" t="n">
-        <v>3370.18241650007</v>
+        <v>1150.976324949114</v>
       </c>
       <c r="V28" t="n">
-        <v>3316.332128040488</v>
+        <v>1150.976324949114</v>
       </c>
       <c r="W28" t="n">
-        <v>3316.332128040488</v>
+        <v>1150.976324949114</v>
       </c>
       <c r="X28" t="n">
-        <v>3082.251805823471</v>
+        <v>1150.976324949114</v>
       </c>
       <c r="Y28" t="n">
-        <v>3082.251805823471</v>
+        <v>1150.976324949114</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2335.860778330528</v>
+        <v>1669.848846502029</v>
       </c>
       <c r="C29" t="n">
-        <v>1942.685276833458</v>
+        <v>1669.848846502029</v>
       </c>
       <c r="D29" t="n">
-        <v>1557.244148050126</v>
+        <v>1284.407717718696</v>
       </c>
       <c r="E29" t="n">
-        <v>1154.660623166671</v>
+        <v>881.8241928352409</v>
       </c>
       <c r="F29" t="n">
-        <v>737.7661846966483</v>
+        <v>464.9297543652186</v>
       </c>
       <c r="G29" t="n">
-        <v>326.0503794412762</v>
+        <v>464.9297543652186</v>
       </c>
       <c r="H29" t="n">
-        <v>73.11171610835748</v>
+        <v>155.6652832473674</v>
       </c>
       <c r="I29" t="n">
         <v>73.11171610835748</v>
@@ -6481,34 +6481,34 @@
         <v>3588.32193014851</v>
       </c>
       <c r="P29" t="n">
-        <v>3645.494628882546</v>
+        <v>3643.456095184202</v>
       </c>
       <c r="Q29" t="n">
-        <v>3655.585805417874</v>
+        <v>3653.54727171953</v>
       </c>
       <c r="R29" t="n">
         <v>3655.585805417874</v>
       </c>
       <c r="S29" t="n">
-        <v>3655.585805417874</v>
+        <v>3522.04462933176</v>
       </c>
       <c r="T29" t="n">
-        <v>3438.419227725665</v>
+        <v>3304.878051639552</v>
       </c>
       <c r="U29" t="n">
-        <v>3438.419227725665</v>
+        <v>3049.24107809468</v>
       </c>
       <c r="V29" t="n">
-        <v>3096.312418429184</v>
+        <v>2707.134268798199</v>
       </c>
       <c r="W29" t="n">
-        <v>2725.313383397471</v>
+        <v>2336.135233766486</v>
       </c>
       <c r="X29" t="n">
-        <v>2335.860778330528</v>
+        <v>2070.343592213425</v>
       </c>
       <c r="Y29" t="n">
-        <v>2335.860778330528</v>
+        <v>2070.343592213425</v>
       </c>
     </row>
     <row r="30">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>832.5394201941027</v>
+        <v>985.3973085929542</v>
       </c>
       <c r="C31" t="n">
-        <v>667.1771242781108</v>
+        <v>815.1921906589434</v>
       </c>
       <c r="D31" t="n">
-        <v>667.1771242781108</v>
+        <v>659.5590775614583</v>
       </c>
       <c r="E31" t="n">
-        <v>511.6183121373134</v>
+        <v>504.0002654206608</v>
       </c>
       <c r="F31" t="n">
-        <v>354.2923773502863</v>
+        <v>504.0002654206608</v>
       </c>
       <c r="G31" t="n">
-        <v>186.6873755218121</v>
+        <v>336.3952635921866</v>
       </c>
       <c r="H31" t="n">
         <v>186.6873755218121</v>
@@ -6651,22 +6651,22 @@
         <v>1383.922154291082</v>
       </c>
       <c r="T31" t="n">
-        <v>1383.922154291082</v>
+        <v>1150.976324949114</v>
       </c>
       <c r="U31" t="n">
-        <v>1098.518765373278</v>
+        <v>1150.976324949114</v>
       </c>
       <c r="V31" t="n">
-        <v>832.5394201941027</v>
+        <v>1150.976324949114</v>
       </c>
       <c r="W31" t="n">
-        <v>832.5394201941027</v>
+        <v>1150.976324949114</v>
       </c>
       <c r="X31" t="n">
-        <v>832.5394201941027</v>
+        <v>985.3973085929542</v>
       </c>
       <c r="Y31" t="n">
-        <v>832.5394201941027</v>
+        <v>985.3973085929542</v>
       </c>
     </row>
     <row r="32">
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1980.470780860088</v>
+        <v>1262.086688403923</v>
       </c>
       <c r="C32" t="n">
-        <v>1587.295279363019</v>
+        <v>1262.086688403923</v>
       </c>
       <c r="D32" t="n">
-        <v>1201.854150579687</v>
+        <v>876.6455596205908</v>
       </c>
       <c r="E32" t="n">
-        <v>799.270625696231</v>
+        <v>876.6455596205908</v>
       </c>
       <c r="F32" t="n">
-        <v>382.3761872262087</v>
+        <v>876.6455596205908</v>
       </c>
       <c r="G32" t="n">
-        <v>382.3761872262087</v>
+        <v>464.9297543652186</v>
       </c>
       <c r="H32" t="n">
-        <v>73.11171610835748</v>
+        <v>155.6652832473674</v>
       </c>
       <c r="I32" t="n">
         <v>73.11171610835748</v>
       </c>
       <c r="J32" t="n">
-        <v>251.7223271093031</v>
+        <v>338.1257022829598</v>
       </c>
       <c r="K32" t="n">
-        <v>290.4892624437354</v>
+        <v>877.5028127922988</v>
       </c>
       <c r="L32" t="n">
-        <v>1007.605198692389</v>
+        <v>1594.618749040952</v>
       </c>
       <c r="M32" t="n">
-        <v>1802.621874080982</v>
+        <v>1695.406723303215</v>
       </c>
       <c r="N32" t="n">
-        <v>2583.4782686455</v>
+        <v>2362.545231576723</v>
       </c>
       <c r="O32" t="n">
-        <v>3262.461192271698</v>
+        <v>3041.528155202921</v>
       </c>
       <c r="P32" t="n">
-        <v>3317.59535730739</v>
+        <v>3593.648245138651</v>
       </c>
       <c r="Q32" t="n">
-        <v>3655.585805417874</v>
+        <v>3603.739421673979</v>
       </c>
       <c r="R32" t="n">
         <v>3655.585805417874</v>
@@ -6733,19 +6733,19 @@
         <v>3304.878051639552</v>
       </c>
       <c r="U32" t="n">
-        <v>3304.878051639552</v>
+        <v>3049.24107809468</v>
       </c>
       <c r="V32" t="n">
-        <v>2962.77124234307</v>
+        <v>2707.134268798199</v>
       </c>
       <c r="W32" t="n">
-        <v>2962.77124234307</v>
+        <v>2336.135233766486</v>
       </c>
       <c r="X32" t="n">
-        <v>2573.318637276127</v>
+        <v>1946.682628699543</v>
       </c>
       <c r="Y32" t="n">
-        <v>2380.965526571485</v>
+        <v>1550.191919620144</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>73.11171610835748</v>
       </c>
       <c r="J33" t="n">
-        <v>73.11171610835748</v>
+        <v>257.91479917177</v>
       </c>
       <c r="K33" t="n">
-        <v>106.9371327829212</v>
+        <v>700.1803278885602</v>
       </c>
       <c r="L33" t="n">
-        <v>736.1483079855747</v>
+        <v>775.7724266740488</v>
       </c>
       <c r="M33" t="n">
-        <v>1556.177586586755</v>
+        <v>876.5668048197294</v>
       </c>
       <c r="N33" t="n">
-        <v>1669.005311194155</v>
+        <v>989.3945294271293</v>
       </c>
       <c r="O33" t="n">
-        <v>1757.777769645578</v>
+        <v>1409.664560549659</v>
       </c>
       <c r="P33" t="n">
-        <v>2308.292900700416</v>
+        <v>1960.179691604498</v>
       </c>
       <c r="Q33" t="n">
-        <v>2315.072272033891</v>
+        <v>2291.402426117219</v>
       </c>
       <c r="R33" t="n">
         <v>2315.072272033891</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>711.8346940676781</v>
+        <v>354.2923773502863</v>
       </c>
       <c r="C34" t="n">
-        <v>541.6295761336673</v>
+        <v>354.2923773502863</v>
       </c>
       <c r="D34" t="n">
-        <v>385.996463036182</v>
+        <v>354.2923773502863</v>
       </c>
       <c r="E34" t="n">
-        <v>230.4376508953845</v>
+        <v>354.2923773502863</v>
       </c>
       <c r="F34" t="n">
-        <v>73.11171610835748</v>
+        <v>354.2923773502863</v>
       </c>
       <c r="G34" t="n">
-        <v>73.11171610835748</v>
+        <v>186.6873755218121</v>
       </c>
       <c r="H34" t="n">
-        <v>73.11171610835748</v>
+        <v>186.6873755218121</v>
       </c>
       <c r="I34" t="n">
         <v>73.11171610835748</v>
@@ -6885,25 +6885,25 @@
         <v>1575.427030634189</v>
       </c>
       <c r="S34" t="n">
-        <v>1575.427030634189</v>
+        <v>1383.922154291082</v>
       </c>
       <c r="T34" t="n">
-        <v>1575.427030634189</v>
+        <v>1150.976324949114</v>
       </c>
       <c r="U34" t="n">
-        <v>1575.427030634189</v>
+        <v>865.5729360313101</v>
       </c>
       <c r="V34" t="n">
-        <v>1575.427030634189</v>
+        <v>865.5729360313101</v>
       </c>
       <c r="W34" t="n">
-        <v>1354.235096159353</v>
+        <v>865.5729360313101</v>
       </c>
       <c r="X34" t="n">
-        <v>1120.154773942336</v>
+        <v>631.4926138142931</v>
       </c>
       <c r="Y34" t="n">
-        <v>897.0427127589794</v>
+        <v>408.3805526309364</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1236.086732595479</v>
+        <v>841.5133234402297</v>
       </c>
       <c r="C35" t="n">
-        <v>842.9112310984092</v>
+        <v>448.3378219431602</v>
       </c>
       <c r="D35" t="n">
-        <v>457.4701023150769</v>
+        <v>448.3378219431602</v>
       </c>
       <c r="E35" t="n">
-        <v>457.4701023150769</v>
+        <v>45.75429705970478</v>
       </c>
       <c r="F35" t="n">
-        <v>457.4701023150769</v>
+        <v>45.75429705970478</v>
       </c>
       <c r="G35" t="n">
         <v>45.75429705970478</v>
@@ -6940,19 +6940,19 @@
         <v>49.61547076255636</v>
       </c>
       <c r="K35" t="n">
-        <v>88.38240609698859</v>
+        <v>396.7918060998245</v>
       </c>
       <c r="L35" t="n">
-        <v>523.8612330726794</v>
+        <v>963.0012322136711</v>
       </c>
       <c r="M35" t="n">
-        <v>1090.070659186526</v>
+        <v>1529.210658327518</v>
       </c>
       <c r="N35" t="n">
-        <v>1656.280085300373</v>
+        <v>1634.628462830168</v>
       </c>
       <c r="O35" t="n">
-        <v>2222.489511414219</v>
+        <v>1725.503586514181</v>
       </c>
       <c r="P35" t="n">
         <v>2277.623676449911</v>
@@ -6964,25 +6964,25 @@
         <v>2287.714852985239</v>
       </c>
       <c r="S35" t="n">
-        <v>2287.714852985239</v>
+        <v>2215.622250310493</v>
       </c>
       <c r="T35" t="n">
-        <v>2287.714852985239</v>
+        <v>1998.455672618284</v>
       </c>
       <c r="U35" t="n">
-        <v>2287.714852985239</v>
+        <v>1998.455672618284</v>
       </c>
       <c r="V35" t="n">
-        <v>2287.714852985239</v>
+        <v>1998.455672618284</v>
       </c>
       <c r="W35" t="n">
-        <v>2287.714852985239</v>
+        <v>1627.456637586572</v>
       </c>
       <c r="X35" t="n">
-        <v>1898.262247918296</v>
+        <v>1238.004032519628</v>
       </c>
       <c r="Y35" t="n">
-        <v>1636.581478306876</v>
+        <v>841.5133234402297</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>810.2139703060761</v>
+        <v>810.2139703060758</v>
       </c>
       <c r="C36" t="n">
-        <v>659.5597398661682</v>
+        <v>659.559739866168</v>
       </c>
       <c r="D36" t="n">
-        <v>529.4707724876484</v>
+        <v>529.4707724876483</v>
       </c>
       <c r="E36" t="n">
-        <v>393.0242815985362</v>
+        <v>393.024281598536</v>
       </c>
       <c r="F36" t="n">
         <v>268.5924754816679</v>
       </c>
       <c r="G36" t="n">
-        <v>149.3068441931971</v>
+        <v>149.3068441931972</v>
       </c>
       <c r="H36" t="n">
-        <v>68.48644086635022</v>
+        <v>68.48644086635053</v>
       </c>
       <c r="I36" t="n">
         <v>45.75429705970478</v>
@@ -7022,22 +7022,22 @@
         <v>672.8229088399075</v>
       </c>
       <c r="L36" t="n">
-        <v>748.4150076253961</v>
+        <v>1079.912580296504</v>
       </c>
       <c r="M36" t="n">
-        <v>1314.624433739243</v>
+        <v>1180.706958442185</v>
       </c>
       <c r="N36" t="n">
-        <v>1880.833859853089</v>
+        <v>1293.534683049585</v>
       </c>
       <c r="O36" t="n">
-        <v>2222.254250484444</v>
+        <v>1382.307141501007</v>
       </c>
       <c r="P36" t="n">
-        <v>2280.935481651764</v>
+        <v>1932.822272555846</v>
       </c>
       <c r="Q36" t="n">
-        <v>2287.714852985239</v>
+        <v>2264.045007068566</v>
       </c>
       <c r="R36" t="n">
         <v>2287.714852985239</v>
@@ -7049,10 +7049,10 @@
         <v>1993.301056806966</v>
       </c>
       <c r="U36" t="n">
-        <v>1783.288846817165</v>
+        <v>1783.288846817164</v>
       </c>
       <c r="V36" t="n">
-        <v>1560.748845188232</v>
+        <v>1560.748845188231</v>
       </c>
       <c r="W36" t="n">
         <v>1330.631599321518</v>
@@ -7061,7 +7061,7 @@
         <v>1141.32452167153</v>
       </c>
       <c r="Y36" t="n">
-        <v>962.0103047470375</v>
+        <v>962.0103047470371</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1741.435406317577</v>
+        <v>213.359298888179</v>
       </c>
       <c r="C37" t="n">
-        <v>1571.230288383566</v>
+        <v>213.359298888179</v>
       </c>
       <c r="D37" t="n">
-        <v>1415.597175286081</v>
+        <v>213.359298888179</v>
       </c>
       <c r="E37" t="n">
-        <v>1260.038363145283</v>
+        <v>213.359298888179</v>
       </c>
       <c r="F37" t="n">
-        <v>1102.712428358256</v>
+        <v>213.359298888179</v>
       </c>
       <c r="G37" t="n">
-        <v>935.1074265297816</v>
+        <v>45.75429705970478</v>
       </c>
       <c r="H37" t="n">
-        <v>785.3995384594072</v>
+        <v>45.75429705970478</v>
       </c>
       <c r="I37" t="n">
-        <v>785.3995384594072</v>
+        <v>45.75429705970478</v>
       </c>
       <c r="J37" t="n">
-        <v>800.6006065262706</v>
+        <v>60.95536512656816</v>
       </c>
       <c r="K37" t="n">
-        <v>956.3430772735745</v>
+        <v>216.6978358738721</v>
       </c>
       <c r="L37" t="n">
-        <v>1215.046781645764</v>
+        <v>475.4015402460616</v>
       </c>
       <c r="M37" t="n">
-        <v>1501.055559454845</v>
+        <v>761.4103180551422</v>
       </c>
       <c r="N37" t="n">
-        <v>1781.591340832354</v>
+        <v>1041.946099432652</v>
       </c>
       <c r="O37" t="n">
-        <v>2034.21103087889</v>
+        <v>1294.565789479188</v>
       </c>
       <c r="P37" t="n">
-        <v>2231.024946569042</v>
+        <v>1491.37970516934</v>
       </c>
       <c r="Q37" t="n">
-        <v>2287.714852985239</v>
+        <v>1548.069611585536</v>
       </c>
       <c r="R37" t="n">
-        <v>2192.997604967896</v>
+        <v>1548.069611585536</v>
       </c>
       <c r="S37" t="n">
-        <v>2192.997604967896</v>
+        <v>1356.56473524243</v>
       </c>
       <c r="T37" t="n">
-        <v>2192.997604967896</v>
+        <v>1123.618905900461</v>
       </c>
       <c r="U37" t="n">
-        <v>1926.643425008878</v>
+        <v>947.8770648274784</v>
       </c>
       <c r="V37" t="n">
-        <v>1926.643425008878</v>
+        <v>681.8977196483027</v>
       </c>
       <c r="W37" t="n">
-        <v>1926.643425008878</v>
+        <v>398.5673175794803</v>
       </c>
       <c r="X37" t="n">
-        <v>1926.643425008878</v>
+        <v>398.5673175794803</v>
       </c>
       <c r="Y37" t="n">
-        <v>1926.643425008878</v>
+        <v>398.5673175794803</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2032.077879440367</v>
+        <v>1627.90477085234</v>
       </c>
       <c r="C38" t="n">
-        <v>2032.077879440367</v>
+        <v>1234.72926935527</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.636750657035</v>
+        <v>849.2881405719381</v>
       </c>
       <c r="E38" t="n">
-        <v>1244.05322577358</v>
+        <v>849.2881405719381</v>
       </c>
       <c r="F38" t="n">
-        <v>827.1587873035575</v>
+        <v>849.2881405719381</v>
       </c>
       <c r="G38" t="n">
-        <v>415.4429820481853</v>
+        <v>437.572335316566</v>
       </c>
       <c r="H38" t="n">
         <v>128.3078641987147</v>
@@ -7174,25 +7174,25 @@
         <v>45.75429705970478</v>
       </c>
       <c r="J38" t="n">
-        <v>49.61547076255636</v>
+        <v>310.7682832343071</v>
       </c>
       <c r="K38" t="n">
-        <v>88.38240609698859</v>
+        <v>349.5352185687393</v>
       </c>
       <c r="L38" t="n">
-        <v>523.8612330726794</v>
+        <v>915.7446446825859</v>
       </c>
       <c r="M38" t="n">
-        <v>1090.070659186526</v>
+        <v>1481.954070796432</v>
       </c>
       <c r="N38" t="n">
-        <v>1656.280085300373</v>
+        <v>2048.163496910279</v>
       </c>
       <c r="O38" t="n">
-        <v>2222.489511414219</v>
+        <v>2139.038620594292</v>
       </c>
       <c r="P38" t="n">
-        <v>2277.623676449911</v>
+        <v>2194.172785629984</v>
       </c>
       <c r="Q38" t="n">
         <v>2287.714852985239</v>
@@ -7207,19 +7207,19 @@
         <v>2287.714852985239</v>
       </c>
       <c r="U38" t="n">
-        <v>2032.077879440367</v>
+        <v>2287.714852985239</v>
       </c>
       <c r="V38" t="n">
-        <v>2032.077879440367</v>
+        <v>1998.903805884052</v>
       </c>
       <c r="W38" t="n">
-        <v>2032.077879440367</v>
+        <v>1627.90477085234</v>
       </c>
       <c r="X38" t="n">
-        <v>2032.077879440367</v>
+        <v>1627.90477085234</v>
       </c>
       <c r="Y38" t="n">
-        <v>2032.077879440367</v>
+        <v>1627.90477085234</v>
       </c>
     </row>
     <row r="39">
@@ -7229,52 +7229,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>810.2139703060758</v>
+        <v>810.2139703060761</v>
       </c>
       <c r="C39" t="n">
-        <v>659.559739866168</v>
+        <v>659.5597398661682</v>
       </c>
       <c r="D39" t="n">
-        <v>529.4707724876483</v>
+        <v>529.4707724876484</v>
       </c>
       <c r="E39" t="n">
-        <v>393.024281598536</v>
+        <v>393.0242815985362</v>
       </c>
       <c r="F39" t="n">
         <v>268.5924754816679</v>
       </c>
       <c r="G39" t="n">
-        <v>149.3068441931972</v>
+        <v>149.3068441931971</v>
       </c>
       <c r="H39" t="n">
-        <v>68.48644086635053</v>
+        <v>68.48644086635022</v>
       </c>
       <c r="I39" t="n">
         <v>45.75429705970478</v>
       </c>
       <c r="J39" t="n">
-        <v>45.75429705970478</v>
+        <v>230.5573801231174</v>
       </c>
       <c r="K39" t="n">
-        <v>488.0198257764949</v>
+        <v>672.8229088399075</v>
       </c>
       <c r="L39" t="n">
-        <v>1054.229251890341</v>
+        <v>1079.912580296504</v>
       </c>
       <c r="M39" t="n">
-        <v>1155.023630036022</v>
+        <v>1180.706958442185</v>
       </c>
       <c r="N39" t="n">
-        <v>1656.044824370598</v>
+        <v>1293.534683049585</v>
       </c>
       <c r="O39" t="n">
-        <v>2222.254250484444</v>
+        <v>1382.307141501007</v>
       </c>
       <c r="P39" t="n">
-        <v>2280.935481651764</v>
+        <v>1932.822272555846</v>
       </c>
       <c r="Q39" t="n">
-        <v>2287.714852985239</v>
+        <v>2264.045007068566</v>
       </c>
       <c r="R39" t="n">
         <v>2287.714852985239</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>684.4772750190255</v>
+        <v>338.0699113822839</v>
       </c>
       <c r="C40" t="n">
-        <v>514.2721570850147</v>
+        <v>167.8647934482731</v>
       </c>
       <c r="D40" t="n">
-        <v>358.6390439875294</v>
+        <v>167.8647934482731</v>
       </c>
       <c r="E40" t="n">
-        <v>203.0802318467318</v>
+        <v>167.8647934482731</v>
       </c>
       <c r="F40" t="n">
         <v>45.75429705970478</v>
@@ -7356,28 +7356,28 @@
         <v>1548.069611585536</v>
       </c>
       <c r="R40" t="n">
-        <v>1453.352363568194</v>
+        <v>1548.069611585536</v>
       </c>
       <c r="S40" t="n">
-        <v>1261.847487225087</v>
+        <v>1548.069611585536</v>
       </c>
       <c r="T40" t="n">
-        <v>1261.847487225087</v>
+        <v>1315.123782243568</v>
       </c>
       <c r="U40" t="n">
-        <v>976.4440983072832</v>
+        <v>1029.720393325764</v>
       </c>
       <c r="V40" t="n">
-        <v>869.6852937103267</v>
+        <v>1029.720393325764</v>
       </c>
       <c r="W40" t="n">
-        <v>869.6852937103267</v>
+        <v>746.3899912569418</v>
       </c>
       <c r="X40" t="n">
-        <v>869.6852937103267</v>
+        <v>746.3899912569418</v>
       </c>
       <c r="Y40" t="n">
-        <v>869.6852937103267</v>
+        <v>523.2779300735851</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1258.407761910252</v>
+        <v>1276.948065668555</v>
       </c>
       <c r="C41" t="n">
-        <v>865.2322604131825</v>
+        <v>1276.948065668555</v>
       </c>
       <c r="D41" t="n">
-        <v>865.2322604131825</v>
+        <v>1276.948065668555</v>
       </c>
       <c r="E41" t="n">
-        <v>462.648735529727</v>
+        <v>874.3645407850991</v>
       </c>
       <c r="F41" t="n">
-        <v>45.75429705970478</v>
+        <v>457.4701023150769</v>
       </c>
       <c r="G41" t="n">
         <v>45.75429705970478</v>
@@ -7429,34 +7429,34 @@
         <v>2145.519326152291</v>
       </c>
       <c r="P41" t="n">
-        <v>2277.623676449911</v>
+        <v>2200.653491187983</v>
       </c>
       <c r="Q41" t="n">
-        <v>2287.714852985239</v>
+        <v>2235.868469241344</v>
       </c>
       <c r="R41" t="n">
         <v>2287.714852985239</v>
       </c>
       <c r="S41" t="n">
-        <v>2287.714852985239</v>
+        <v>2154.173676899125</v>
       </c>
       <c r="T41" t="n">
-        <v>2287.714852985239</v>
+        <v>2154.173676899125</v>
       </c>
       <c r="U41" t="n">
-        <v>2287.714852985239</v>
+        <v>2154.173676899125</v>
       </c>
       <c r="V41" t="n">
-        <v>1945.608043688757</v>
+        <v>2154.173676899125</v>
       </c>
       <c r="W41" t="n">
-        <v>1574.609008657045</v>
+        <v>2073.93352045935</v>
       </c>
       <c r="X41" t="n">
-        <v>1258.407761910252</v>
+        <v>2073.93352045935</v>
       </c>
       <c r="Y41" t="n">
-        <v>1258.407761910252</v>
+        <v>1677.442811379952</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>45.75429705970478</v>
       </c>
       <c r="J42" t="n">
-        <v>45.75429705970478</v>
+        <v>230.5573801231174</v>
       </c>
       <c r="K42" t="n">
-        <v>448.0338733574158</v>
+        <v>424.364027440743</v>
       </c>
       <c r="L42" t="n">
-        <v>523.6259721429044</v>
+        <v>499.9561262262316</v>
       </c>
       <c r="M42" t="n">
-        <v>1089.835398256751</v>
+        <v>1066.165552340078</v>
       </c>
       <c r="N42" t="n">
-        <v>1656.044824370598</v>
+        <v>1632.374978453925</v>
       </c>
       <c r="O42" t="n">
-        <v>2222.254250484444</v>
+        <v>2198.584404567771</v>
       </c>
       <c r="P42" t="n">
-        <v>2280.935481651764</v>
+        <v>2257.265635735091</v>
       </c>
       <c r="Q42" t="n">
-        <v>2287.714852985239</v>
+        <v>2264.045007068566</v>
       </c>
       <c r="R42" t="n">
         <v>2287.714852985239</v>
@@ -7523,10 +7523,10 @@
         <v>1993.301056806966</v>
       </c>
       <c r="U42" t="n">
-        <v>1783.288846817165</v>
+        <v>1783.288846817164</v>
       </c>
       <c r="V42" t="n">
-        <v>1560.748845188232</v>
+        <v>1560.748845188231</v>
       </c>
       <c r="W42" t="n">
         <v>1330.631599321518</v>
@@ -7535,7 +7535,7 @@
         <v>1141.32452167153</v>
       </c>
       <c r="Y42" t="n">
-        <v>962.0103047470375</v>
+        <v>962.0103047470371</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>45.75429705970478</v>
+        <v>700.9228230914047</v>
       </c>
       <c r="C43" t="n">
-        <v>45.75429705970478</v>
+        <v>530.7177051573939</v>
       </c>
       <c r="D43" t="n">
-        <v>45.75429705970478</v>
+        <v>375.0845920599086</v>
       </c>
       <c r="E43" t="n">
-        <v>45.75429705970478</v>
+        <v>352.7881199171063</v>
       </c>
       <c r="F43" t="n">
-        <v>45.75429705970478</v>
+        <v>195.4621851300792</v>
       </c>
       <c r="G43" t="n">
-        <v>45.75429705970478</v>
+        <v>195.4621851300792</v>
       </c>
       <c r="H43" t="n">
         <v>45.75429705970478</v>
@@ -7593,28 +7593,28 @@
         <v>1548.069611585536</v>
       </c>
       <c r="R43" t="n">
-        <v>1548.069611585536</v>
+        <v>1453.352363568194</v>
       </c>
       <c r="S43" t="n">
-        <v>1356.56473524243</v>
+        <v>1453.352363568194</v>
       </c>
       <c r="T43" t="n">
-        <v>1123.618905900461</v>
+        <v>1220.406534226225</v>
       </c>
       <c r="U43" t="n">
-        <v>838.2155169826574</v>
+        <v>935.0031453084216</v>
       </c>
       <c r="V43" t="n">
-        <v>572.2361718034816</v>
+        <v>935.0031453084216</v>
       </c>
       <c r="W43" t="n">
-        <v>288.9057697346593</v>
+        <v>935.0031453084216</v>
       </c>
       <c r="X43" t="n">
-        <v>54.82544751764235</v>
+        <v>700.9228230914047</v>
       </c>
       <c r="Y43" t="n">
-        <v>54.82544751764235</v>
+        <v>700.9228230914047</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>560.4569761740404</v>
+        <v>1276.948065668555</v>
       </c>
       <c r="C44" t="n">
-        <v>448.3378219431602</v>
+        <v>1276.948065668555</v>
       </c>
       <c r="D44" t="n">
-        <v>448.3378219431602</v>
+        <v>1276.948065668555</v>
       </c>
       <c r="E44" t="n">
-        <v>45.75429705970478</v>
+        <v>874.3645407850991</v>
       </c>
       <c r="F44" t="n">
-        <v>45.75429705970478</v>
+        <v>457.4701023150769</v>
       </c>
       <c r="G44" t="n">
         <v>45.75429705970478</v>
@@ -7651,22 +7651,22 @@
         <v>49.61547076255636</v>
       </c>
       <c r="K44" t="n">
-        <v>88.38240609698859</v>
+        <v>588.9925812718953</v>
       </c>
       <c r="L44" t="n">
-        <v>654.5918322108352</v>
+        <v>661.0725377688332</v>
       </c>
       <c r="M44" t="n">
-        <v>1220.801258324682</v>
+        <v>761.8605120310956</v>
       </c>
       <c r="N44" t="n">
-        <v>1326.219062827332</v>
+        <v>867.2783165337457</v>
       </c>
       <c r="O44" t="n">
-        <v>1725.503586514181</v>
+        <v>1397.604314939025</v>
       </c>
       <c r="P44" t="n">
-        <v>2277.623676449911</v>
+        <v>1949.724404874755</v>
       </c>
       <c r="Q44" t="n">
         <v>2287.714852985239</v>
@@ -7678,22 +7678,22 @@
         <v>2287.714852985239</v>
       </c>
       <c r="T44" t="n">
-        <v>2070.54827529303</v>
+        <v>2287.714852985239</v>
       </c>
       <c r="U44" t="n">
-        <v>2070.54827529303</v>
+        <v>2287.714852985239</v>
       </c>
       <c r="V44" t="n">
-        <v>1728.441465996549</v>
+        <v>2287.714852985239</v>
       </c>
       <c r="W44" t="n">
-        <v>1357.442430964836</v>
+        <v>2287.714852985239</v>
       </c>
       <c r="X44" t="n">
-        <v>1357.442430964836</v>
+        <v>2073.93352045935</v>
       </c>
       <c r="Y44" t="n">
-        <v>960.9517218854373</v>
+        <v>1677.442811379952</v>
       </c>
     </row>
     <row r="45">
@@ -7724,25 +7724,25 @@
         <v>68.48644086635085</v>
       </c>
       <c r="I45" t="n">
-        <v>45.7542970597051</v>
+        <v>45.75429705970478</v>
       </c>
       <c r="J45" t="n">
-        <v>45.75429705970478</v>
+        <v>230.5573801231174</v>
       </c>
       <c r="K45" t="n">
-        <v>79.57971373426851</v>
+        <v>672.8229088399075</v>
       </c>
       <c r="L45" t="n">
-        <v>645.789139848115</v>
+        <v>1239.032334953754</v>
       </c>
       <c r="M45" t="n">
-        <v>1195.103890667279</v>
+        <v>1339.826713099435</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.931615274679</v>
+        <v>1452.654437706835</v>
       </c>
       <c r="O45" t="n">
-        <v>1874.141041388526</v>
+        <v>1541.426896158257</v>
       </c>
       <c r="P45" t="n">
         <v>1932.822272555846</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1222.139011842134</v>
+        <v>201.3131092005023</v>
       </c>
       <c r="C46" t="n">
-        <v>1222.139011842134</v>
+        <v>201.3131092005023</v>
       </c>
       <c r="D46" t="n">
-        <v>1222.139011842134</v>
+        <v>201.3131092005023</v>
       </c>
       <c r="E46" t="n">
-        <v>1066.580199701336</v>
+        <v>45.75429705970478</v>
       </c>
       <c r="F46" t="n">
-        <v>1066.580199701336</v>
+        <v>45.75429705970478</v>
       </c>
       <c r="G46" t="n">
-        <v>898.9751978728618</v>
+        <v>45.75429705970478</v>
       </c>
       <c r="H46" t="n">
-        <v>898.9751978728618</v>
+        <v>45.75429705970478</v>
       </c>
       <c r="I46" t="n">
-        <v>785.3995384594072</v>
+        <v>45.75429705970478</v>
       </c>
       <c r="J46" t="n">
-        <v>800.6006065262706</v>
+        <v>60.95536512656816</v>
       </c>
       <c r="K46" t="n">
-        <v>956.3430772735745</v>
+        <v>216.6978358738721</v>
       </c>
       <c r="L46" t="n">
-        <v>1215.046781645764</v>
+        <v>475.4015402460616</v>
       </c>
       <c r="M46" t="n">
-        <v>1501.055559454845</v>
+        <v>761.4103180551422</v>
       </c>
       <c r="N46" t="n">
-        <v>1781.591340832354</v>
+        <v>1041.946099432652</v>
       </c>
       <c r="O46" t="n">
-        <v>2034.21103087889</v>
+        <v>1294.565789479188</v>
       </c>
       <c r="P46" t="n">
-        <v>2231.024946569042</v>
+        <v>1491.37970516934</v>
       </c>
       <c r="Q46" t="n">
-        <v>2287.714852985239</v>
+        <v>1548.069611585536</v>
       </c>
       <c r="R46" t="n">
-        <v>2287.714852985239</v>
+        <v>1548.069611585536</v>
       </c>
       <c r="S46" t="n">
-        <v>2096.209976642132</v>
+        <v>1548.069611585536</v>
       </c>
       <c r="T46" t="n">
-        <v>1863.264147300164</v>
+        <v>1315.123782243568</v>
       </c>
       <c r="U46" t="n">
-        <v>1577.86075838236</v>
+        <v>1029.720393325764</v>
       </c>
       <c r="V46" t="n">
-        <v>1311.881413203184</v>
+        <v>763.7410481465885</v>
       </c>
       <c r="W46" t="n">
-        <v>1222.139011842134</v>
+        <v>480.4106460777661</v>
       </c>
       <c r="X46" t="n">
-        <v>1222.139011842134</v>
+        <v>424.4251703838589</v>
       </c>
       <c r="Y46" t="n">
-        <v>1222.139011842134</v>
+        <v>201.3131092005023</v>
       </c>
     </row>
   </sheetData>
@@ -7978,16 +7978,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>151.6367735386038</v>
       </c>
       <c r="K2" t="n">
         <v>373.0193783173885</v>
       </c>
       <c r="L2" t="n">
-        <v>373.9177923378086</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>379.6860267358784</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
         <v>379.0794664759352</v>
@@ -7996,10 +7996,10 @@
         <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>380.2624223790764</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8057,7 +8057,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
         <v>89.59693533333335</v>
@@ -8069,10 +8069,10 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>315.3330879923178</v>
+        <v>191.7841776637791</v>
       </c>
       <c r="O3" t="n">
-        <v>313.3571814962058</v>
+        <v>322.6485340270401</v>
       </c>
       <c r="P3" t="n">
         <v>317.0443399574658</v>
@@ -8218,25 +8218,25 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>217.6171440604653</v>
       </c>
       <c r="L5" t="n">
-        <v>271.0551987388116</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M5" t="n">
-        <v>379.6860267358784</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
         <v>379.0794664759352</v>
       </c>
       <c r="O5" t="n">
-        <v>149.5638374240964</v>
+        <v>379.5248125622476</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>380.2624223790764</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8294,25 +8294,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
         <v>319.5579104714845</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M6" t="n">
-        <v>198.7991868589244</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>315.3330879923178</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>307.7529874266315</v>
       </c>
       <c r="Q6" t="n">
         <v>320.9491282940651</v>
@@ -8452,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>363.7280257865542</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
         <v>153.2481697304917</v>
@@ -8467,13 +8467,13 @@
         <v>379.0794664759352</v>
       </c>
       <c r="O8" t="n">
-        <v>379.5248125622476</v>
+        <v>267.3708664324162</v>
       </c>
       <c r="P8" t="n">
         <v>380.2624223790764</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8540,16 +8540,16 @@
         <v>320.0213219950694</v>
       </c>
       <c r="M9" t="n">
-        <v>198.7991868589244</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>315.3330879923178</v>
+        <v>191.7841776637791</v>
       </c>
       <c r="O9" t="n">
         <v>322.6485340270401</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q9" t="n">
         <v>90.98815315591399</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>263.7907196684351</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>31.92374452124369</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L11" t="n">
-        <v>499.1206763807159</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>470.1226786379638</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>465.446082435552</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>480.1356590200334</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>294.9654988551406</v>
       </c>
       <c r="R11" t="n">
-        <v>102.5176150018526</v>
+        <v>50.14753041205914</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,13 +8768,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>10.03223425890386</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>495.5730579074324</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8783,13 +8783,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>353.6633248337454</v>
+        <v>482.259563295378</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>349.3883887840431</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L14" t="n">
         <v>499.120676380716</v>
       </c>
       <c r="M14" t="n">
-        <v>470.1226786379639</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>465.4460824355519</v>
       </c>
       <c r="O14" t="n">
-        <v>295.7144641896786</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>48.74966413798376</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>102.5176150018526</v>
+        <v>50.14753041205914</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>10.03223425890386</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>495.5730579074324</v>
@@ -9020,13 +9020,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>353.6633248337454</v>
+        <v>482.259563295378</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>266.3811006162334</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9178,16 +9178,16 @@
         <v>465.4460824355519</v>
       </c>
       <c r="O17" t="n">
-        <v>348.0845487794719</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>31.92374452124388</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>50.14753041205914</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,28 +9242,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>10.03223425890386</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>495.5730579074324</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>457.9613146529765</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>308.2677799203917</v>
+        <v>334.8460330011191</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>499.120676380716</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>470.1226786379639</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>465.4460824355519</v>
+        <v>153.2601527784779</v>
       </c>
       <c r="O20" t="n">
-        <v>295.7144641896786</v>
+        <v>480.1356590200334</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9479,31 +9479,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>10.03223425890386</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>372.1759188112599</v>
+        <v>495.5730579074324</v>
       </c>
       <c r="M21" t="n">
-        <v>470.1162100688545</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>457.9613146529765</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>482.259563295378</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>336.0748941719887</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
-        <v>47.10486963629413</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>27.02421820283477</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K23" t="n">
         <v>505.666843611017</v>
@@ -9658,7 +9658,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q23" t="n">
-        <v>331.2113854294513</v>
+        <v>94.44488396385108</v>
       </c>
       <c r="R23" t="n">
         <v>102.5176150018526</v>
@@ -9716,31 +9716,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>10.03223425890386</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>334.8460330011189</v>
       </c>
       <c r="M24" t="n">
-        <v>92.77493100507245</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
-        <v>47.10486963629413</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9889,16 +9889,16 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O26" t="n">
-        <v>594.0482827698827</v>
+        <v>4.766161483322904</v>
       </c>
       <c r="P26" t="n">
-        <v>124.1444985395947</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q26" t="n">
         <v>331.2113854294513</v>
       </c>
       <c r="R26" t="n">
-        <v>102.5176150018526</v>
+        <v>50.14753041205914</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,28 +9953,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>10.03223425890386</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>192.8097993367118</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>308.239003402525</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>47.10486963629413</v>
@@ -10129,13 +10129,13 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P29" t="n">
-        <v>2.059124947822212</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>50.14753041205914</v>
+        <v>52.20665535988142</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>176.514583129388</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L32" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M32" t="n">
-        <v>701.2411122488187</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>682.2612020826953</v>
+        <v>567.3946502735945</v>
       </c>
       <c r="O32" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q32" t="n">
-        <v>331.2113854294513</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>50.14753041205914</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>10.03223425890386</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>559.2111883001666</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>334.8460330011189</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
-        <v>47.10486963629413</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,22 +10588,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>311.524646467511</v>
       </c>
       <c r="L35" t="n">
-        <v>367.0695661401545</v>
+        <v>499.1206763807159</v>
       </c>
       <c r="M35" t="n">
         <v>470.1226786379638</v>
       </c>
       <c r="N35" t="n">
-        <v>465.446082435552</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>480.1356590200334</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10670,25 +10670,25 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>334.8460330011192</v>
       </c>
       <c r="M36" t="n">
-        <v>470.1162100688545</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>457.9613146529765</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>255.1999314948812</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
-        <v>47.10486963629413</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>367.0695661401545</v>
+        <v>499.120676380716</v>
       </c>
       <c r="M38" t="n">
-        <v>470.1226786379638</v>
+        <v>470.1226786379639</v>
       </c>
       <c r="N38" t="n">
-        <v>465.446082435552</v>
+        <v>465.4460824355519</v>
       </c>
       <c r="O38" t="n">
-        <v>480.1356590200334</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>84.29382911103743</v>
       </c>
       <c r="R38" t="n">
         <v>50.14753041205914</v>
@@ -10901,31 +10901,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>10.03223425890386</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>495.5730579074324</v>
+        <v>334.8460330011192</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>392.114615886036</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>482.259563295378</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
-        <v>47.10486963629413</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11077,13 +11077,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>77.74766188073554</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>25.37757729094255</v>
       </c>
       <c r="R41" t="n">
-        <v>50.14753041205914</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,10 +11138,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>10.03223425890386</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>372.1759188112599</v>
+        <v>161.5972026697596</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>47.10486963629413</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,25 +11299,25 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L44" t="n">
-        <v>499.120676380716</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>470.1226786379639</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>311.5246464675108</v>
+        <v>443.8897724457227</v>
       </c>
       <c r="P44" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R44" t="n">
         <v>50.14753041205914</v>
@@ -11375,25 +11375,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>10.03223425890386</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
         <v>495.5730579074324</v>
       </c>
       <c r="M45" t="n">
-        <v>453.0508814883673</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>482.259563295378</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>336.0748941719887</v>
       </c>
       <c r="Q45" t="n">
         <v>327.7205688679246</v>
@@ -23260,16 +23260,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>233.3163290417695</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
         <v>407.5986472028184</v>
@@ -23278,7 +23278,7 @@
         <v>306.1718264066727</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>31.62836852431021</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.2057643252521</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>214.9949119152865</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>253.0806038094227</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>338.6857412035168</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>148.8459589126726</v>
+        <v>174.3754995510301</v>
       </c>
       <c r="C13" t="n">
         <v>168.5030667546707</v>
@@ -23436,7 +23436,7 @@
         <v>148.2108091896707</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>112.4399028193201</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>93.77007553716916</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>220.8809405715231</v>
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>28.34631301780399</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>283.24349662846</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
         <v>412.725494085322</v>
@@ -23515,7 +23515,7 @@
         <v>306.1718264066727</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>81.7280314676198</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23554,16 +23554,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.9289518101895</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.2108091896707</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>112.4399028193201</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,22 +23706,22 @@
         <v>189.5898275796758</v>
       </c>
       <c r="T16" t="n">
-        <v>230.6163710485488</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5493550286257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>256.3572277423798</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>22.31067403848911</v>
       </c>
     </row>
     <row r="17">
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>263.800338141205</v>
+        <v>407.5986472028184</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>306.1718264066727</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>81.7280314676198</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>132.2057643252521</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.0806038094227</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>339.2859260569855</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>168.5030667546707</v>
@@ -23901,13 +23901,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.9289518101895</v>
       </c>
       <c r="H19" t="n">
-        <v>148.2108091896707</v>
+        <v>132.996481161025</v>
       </c>
       <c r="I19" t="n">
         <v>112.4399028193201</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>93.77007553716916</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.5898275796758</v>
       </c>
       <c r="T19" t="n">
-        <v>81.48329764867069</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5493550286257</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -23971,22 +23971,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>369.4934548877966</v>
       </c>
       <c r="D20" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>407.5986472028184</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>306.1718264066727</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24022,7 +24022,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>97.73191021053269</v>
+        <v>214.9949119152865</v>
       </c>
       <c r="U20" t="n">
         <v>253.0806038094227</v>
@@ -24132,22 +24132,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.9289518101895</v>
       </c>
       <c r="H22" t="n">
         <v>148.2108091896707</v>
       </c>
       <c r="I22" t="n">
-        <v>112.4399028193201</v>
+        <v>78.80408469158019</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>93.77007553716916</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.5898275796758</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>230.6163710485488</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>189.7164172303397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24220,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>407.5986472028184</v>
+        <v>26.83419524752327</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>11.7613500333094</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>4.33077103639792</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.9289518101895</v>
@@ -24384,7 +24384,7 @@
         <v>148.2108091896707</v>
       </c>
       <c r="I25" t="n">
-        <v>112.4399028193201</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>93.77007553716916</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.5898275796758</v>
       </c>
       <c r="T25" t="n">
-        <v>230.6163710485488</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>75.0542061067853</v>
+        <v>282.5493550286257</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24448,22 +24448,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>407.5986472028184</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>81.7280314676198</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.2057643252521</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>301.0163600744766</v>
+        <v>142.4043959400472</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>21.18216373155755</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24651,22 +24651,22 @@
         <v>93.77007553716916</v>
       </c>
       <c r="S28" t="n">
-        <v>189.5898275796758</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>230.6163710485488</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5493550286257</v>
       </c>
       <c r="V28" t="n">
-        <v>210.0077661523984</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
         <v>220.8809405715231</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>407.5986472028184</v>
       </c>
       <c r="H29" t="n">
-        <v>55.7625497070832</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>81.7280314676198</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.2057643252521</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>253.0806038094227</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>122.4243538787435</v>
       </c>
       <c r="Y29" t="n">
         <v>392.5258019886049</v>
@@ -24840,22 +24840,22 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>4.794393797838666</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.2108091896707</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24891,19 +24891,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>230.6163710485488</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5493550286257</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>67.81629280224871</v>
       </c>
       <c r="Y31" t="n">
         <v>220.8809405715231</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>111.2656193502241</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>407.5986472028184</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>81.7280314676198</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,19 +24973,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.0806038094227</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>202.0962223910094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>129.8086449765446</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>165.9289518101895</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.2108091896707</v>
       </c>
       <c r="I34" t="n">
-        <v>112.4399028193201</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,19 +25125,19 @@
         <v>93.77007553716916</v>
       </c>
       <c r="S34" t="n">
-        <v>189.5898275796758</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>230.6163710485488</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5493550286257</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>61.5170829180463</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>407.5986472028184</v>
       </c>
       <c r="H35" t="n">
         <v>306.1718264066727</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.2057643252521</v>
+        <v>60.83408767725342</v>
       </c>
       <c r="T35" t="n">
-        <v>214.9949119152865</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>253.0806038094227</v>
@@ -25216,13 +25216,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>133.4618400732992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.2108091896707</v>
       </c>
       <c r="I37" t="n">
         <v>112.4399028193201</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>93.77007553716916</v>
       </c>
       <c r="S37" t="n">
-        <v>189.5898275796758</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>230.6163710485488</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>18.85871686919745</v>
+        <v>108.5649323663728</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
@@ -25393,22 +25393,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>21.90805973569672</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25447,13 +25447,13 @@
         <v>214.9949119152865</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.0806038094227</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>52.76280457334224</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>385.5580790162737</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>34.86328401447417</v>
       </c>
       <c r="G40" t="n">
         <v>165.9289518101895</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>93.77007553716916</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.5898275796758</v>
       </c>
       <c r="T40" t="n">
-        <v>230.6163710485488</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>157.6283351763971</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
         <v>381.5867174954989</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>407.5986472028184</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>306.1718264066727</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.2057643252521</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>214.9949119152865</v>
@@ -25687,16 +25687,16 @@
         <v>253.0806038094227</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>287.8512898060181</v>
       </c>
       <c r="X41" t="n">
-        <v>72.51884473694889</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>174.3754995510301</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>131.9297165980152</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.9289518101895</v>
       </c>
       <c r="H43" t="n">
-        <v>148.2108091896707</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>112.4399028193201</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>93.77007553716916</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.5898275796758</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>278.2457837935273</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
         <v>381.5867174954989</v>
@@ -25876,10 +25876,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>407.5986472028184</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>306.1718264066727</v>
@@ -25918,19 +25918,19 @@
         <v>132.2057643252521</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>214.9949119152865</v>
       </c>
       <c r="U44" t="n">
         <v>253.0806038094227</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>173.9145598156441</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.9289518101895</v>
       </c>
       <c r="H46" t="n">
         <v>148.2108091896707</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>112.4399028193201</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>93.77007553716916</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.5898275796758</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>191.6521207006944</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>176.3138980578786</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>587191.7443124776</v>
+        <v>587191.7443124778</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>730339.0317208399</v>
+        <v>730339.0317208401</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>730339.0317208399</v>
+        <v>730339.03172084</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>587191.7443124774</v>
+        <v>587191.7443124778</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>587191.7443124776</v>
+        <v>587191.7443124778</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>587191.7443124779</v>
+        <v>587191.7443124774</v>
       </c>
     </row>
     <row r="16">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>468863.6630427277</v>
+        <v>468863.6630427276</v>
       </c>
       <c r="C2" t="n">
+        <v>468863.6630427278</v>
+      </c>
+      <c r="D2" t="n">
         <v>468863.6630427276</v>
       </c>
-      <c r="D2" t="n">
-        <v>468863.6630427277</v>
-      </c>
       <c r="E2" t="n">
+        <v>308179.0339423046</v>
+      </c>
+      <c r="F2" t="n">
         <v>308179.0339423047</v>
-      </c>
-      <c r="F2" t="n">
-        <v>308179.0339423046</v>
       </c>
       <c r="G2" t="n">
         <v>308179.0339423046</v>
@@ -26343,19 +26343,19 @@
         <v>376843.6224574187</v>
       </c>
       <c r="L2" t="n">
-        <v>376843.6224574188</v>
+        <v>376843.6224574189</v>
       </c>
       <c r="M2" t="n">
-        <v>308179.0339423045</v>
+        <v>308179.0339423047</v>
       </c>
       <c r="N2" t="n">
         <v>308179.0339423047</v>
       </c>
       <c r="O2" t="n">
-        <v>308179.0339423047</v>
+        <v>308179.0339423046</v>
       </c>
       <c r="P2" t="n">
-        <v>308179.0339423046</v>
+        <v>308179.0339423045</v>
       </c>
     </row>
     <row r="3">
@@ -26426,16 +26426,16 @@
         <v>322568.5699589869</v>
       </c>
       <c r="E4" t="n">
+        <v>66127.04722361639</v>
+      </c>
+      <c r="F4" t="n">
+        <v>66127.04722361639</v>
+      </c>
+      <c r="G4" t="n">
         <v>66127.04722361641</v>
       </c>
-      <c r="F4" t="n">
-        <v>66127.04722361641</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>66127.04722361639</v>
-      </c>
-      <c r="H4" t="n">
-        <v>66127.04722361641</v>
       </c>
       <c r="I4" t="n">
         <v>111463.1130350262</v>
@@ -26447,19 +26447,19 @@
         <v>93234.39735515913</v>
       </c>
       <c r="L4" t="n">
-        <v>93234.39735515912</v>
+        <v>93234.3973551591</v>
       </c>
       <c r="M4" t="n">
+        <v>66127.04722361639</v>
+      </c>
+      <c r="N4" t="n">
+        <v>66127.04722361642</v>
+      </c>
+      <c r="O4" t="n">
         <v>66127.04722361641</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>66127.04722361639</v>
-      </c>
-      <c r="O4" t="n">
-        <v>66127.04722361639</v>
-      </c>
-      <c r="P4" t="n">
-        <v>66127.04722361641</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21620.65392411861</v>
+        <v>21620.65392411838</v>
       </c>
       <c r="C6" t="n">
-        <v>98685.86579534109</v>
+        <v>98685.86579534126</v>
       </c>
       <c r="D6" t="n">
-        <v>98685.8657953412</v>
+        <v>98685.86579534103</v>
       </c>
       <c r="E6" t="n">
-        <v>-188869.5670087633</v>
+        <v>-189487.5848129958</v>
       </c>
       <c r="F6" t="n">
-        <v>199510.7359442418</v>
+        <v>198892.7181400096</v>
       </c>
       <c r="G6" t="n">
-        <v>199510.7359442418</v>
+        <v>198892.7181400094</v>
       </c>
       <c r="H6" t="n">
-        <v>199510.735944242</v>
+        <v>198892.7181400096</v>
       </c>
       <c r="I6" t="n">
-        <v>82152.59778423549</v>
+        <v>81976.26862912599</v>
       </c>
       <c r="J6" t="n">
-        <v>220276.3358508373</v>
+        <v>219922.4126178169</v>
       </c>
       <c r="K6" t="n">
-        <v>220276.3358508372</v>
+        <v>219922.4126178168</v>
       </c>
       <c r="L6" t="n">
-        <v>220276.3358508373</v>
+        <v>219922.412617817</v>
       </c>
       <c r="M6" t="n">
-        <v>199510.7359442418</v>
+        <v>198892.7181400096</v>
       </c>
       <c r="N6" t="n">
-        <v>199510.735944242</v>
+        <v>198892.7181400095</v>
       </c>
       <c r="O6" t="n">
-        <v>199510.735944242</v>
+        <v>198892.7181400094</v>
       </c>
       <c r="P6" t="n">
-        <v>199510.7359442419</v>
+        <v>198892.7181400094</v>
       </c>
     </row>
   </sheetData>
@@ -27381,10 +27381,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>159.2827713439475</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>151.6257423573478</v>
       </c>
       <c r="E2" t="n">
         <v>168.5967144964697</v>
@@ -27393,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>219.2069951405154</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -27438,13 +27438,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>157.8927363440323</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>137.3280695432443</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>155.5971038781226</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -27457,22 +27457,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>41.83632645878278</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>53.47678647346042</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>87.41444223540508</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27523,7 +27523,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>177.5210747552478</v>
@@ -27551,10 +27551,10 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>150.9747630235006</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>3.400886175297046</v>
+        <v>151.4210256354426</v>
       </c>
       <c r="U4" t="n">
         <v>52.62342870236691</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>33.35857658923285</v>
       </c>
       <c r="W4" t="n">
-        <v>50.53612290998299</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -27624,19 +27624,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>217.7646847751363</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>319.6300418696404</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>179.0701528187257</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>23.23422713159621</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>108.7247660653656</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>137.3280695432443</v>
       </c>
       <c r="X5" t="n">
-        <v>155.5971038781226</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27697,25 +27697,25 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
-        <v>46.29881749532282</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
         <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>28.8522698035223</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27751,16 +27751,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>177.5210747552478</v>
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
@@ -27830,19 +27830,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>171.4636033458586</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>190.7654667007305</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>1.778543856695563</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27864,13 +27864,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>182.7645189471708</v>
+        <v>273.3216785703334</v>
       </c>
       <c r="G8" t="n">
         <v>179.0701528187257</v>
       </c>
       <c r="H8" t="n">
-        <v>90.88124479102308</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27900,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>310.7028446176265</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
@@ -27934,13 +27934,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -27952,7 +27952,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S9" t="n">
         <v>133.5813703291298</v>
@@ -27994,13 +27994,13 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W9" t="n">
-        <v>227.816073408046</v>
+        <v>92.64368162175083</v>
       </c>
       <c r="X9" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>163.0026472798042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>22.31857408727991</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
@@ -28070,13 +28070,13 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>170.6393366182547</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>50.53612290998299</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>1.778543856695563</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -34698,16 +34698,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33.95693559625769</v>
       </c>
       <c r="K2" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="L2" t="n">
-        <v>220.6696226073169</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>229.9609751381512</v>
@@ -34716,10 +34716,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34789,10 +34789,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>106.4120648096124</v>
+      </c>
+      <c r="O3" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="O3" t="n">
-        <v>220.6696226073169</v>
       </c>
       <c r="P3" t="n">
         <v>229.9609751381512</v>
@@ -34938,25 +34938,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>74.55874088122788</v>
       </c>
       <c r="L5" t="n">
-        <v>117.8070290083198</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M6" t="n">
-        <v>106.4120648096125</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>220.6696226073169</v>
       </c>
       <c r="Q6" t="n">
         <v>229.9609751381512</v>
@@ -35172,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>220.6696226073169</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35187,13 +35187,13 @@
         <v>229.9609751381512</v>
       </c>
       <c r="O8" t="n">
-        <v>229.9609751381512</v>
+        <v>117.8070290083198</v>
       </c>
       <c r="P8" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35260,16 +35260,16 @@
         <v>229.9609751381512</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>106.4120648096125</v>
-      </c>
-      <c r="N9" t="n">
-        <v>229.9609751381512</v>
       </c>
       <c r="O9" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>267.6908951258609</v>
+        <v>3.900175457425846</v>
       </c>
       <c r="K11" t="n">
-        <v>71.08226506107422</v>
+        <v>544.8253641508475</v>
       </c>
       <c r="L11" t="n">
+        <v>72.80803686559378</v>
+      </c>
+      <c r="M11" t="n">
+        <v>101.8060346083459</v>
+      </c>
+      <c r="N11" t="n">
+        <v>106.4826308107577</v>
+      </c>
+      <c r="O11" t="n">
         <v>571.9287132463097</v>
       </c>
-      <c r="M11" t="n">
-        <v>571.9287132463097</v>
-      </c>
-      <c r="N11" t="n">
-        <v>571.9287132463097</v>
-      </c>
-      <c r="O11" t="n">
-        <v>91.79305422627633</v>
-      </c>
       <c r="P11" t="n">
-        <v>55.6910757936285</v>
+        <v>557.6970605411414</v>
       </c>
       <c r="Q11" t="n">
-        <v>10.19310761144177</v>
+        <v>305.1586064665823</v>
       </c>
       <c r="R11" t="n">
-        <v>52.37008458979346</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>186.6697808721339</v>
       </c>
       <c r="K12" t="n">
         <v>446.732857289687</v>
       </c>
       <c r="L12" t="n">
-        <v>571.9287132463097</v>
+        <v>76.35565533887733</v>
       </c>
       <c r="M12" t="n">
         <v>101.8125031774552</v>
@@ -35503,13 +35503,13 @@
         <v>113.9673985933332</v>
       </c>
       <c r="O12" t="n">
-        <v>443.3324747846772</v>
+        <v>571.9287132463097</v>
       </c>
       <c r="P12" t="n">
-        <v>556.0758899543827</v>
+        <v>408.6623596601237</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.847849831792985</v>
+        <v>334.5684186997176</v>
       </c>
       <c r="R12" t="n">
         <v>23.90893526936635</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>3.900175457425846</v>
+        <v>267.6908951258609</v>
       </c>
       <c r="K14" t="n">
-        <v>39.15852053983053</v>
+        <v>544.8253641508475</v>
       </c>
       <c r="L14" t="n">
         <v>571.9287132463097</v>
       </c>
       <c r="M14" t="n">
-        <v>571.9287132463097</v>
+        <v>101.8060346083459</v>
       </c>
       <c r="N14" t="n">
         <v>571.9287132463097</v>
       </c>
       <c r="O14" t="n">
-        <v>387.5075184159549</v>
+        <v>91.79305422627633</v>
       </c>
       <c r="P14" t="n">
-        <v>55.6910757936285</v>
+        <v>104.4407399316123</v>
       </c>
       <c r="Q14" t="n">
         <v>10.19310761144177</v>
       </c>
       <c r="R14" t="n">
-        <v>52.37008458979346</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>186.6697808721339</v>
       </c>
       <c r="K15" t="n">
-        <v>446.732857289687</v>
+        <v>34.16708755006438</v>
       </c>
       <c r="L15" t="n">
         <v>571.9287132463097</v>
@@ -35740,13 +35740,13 @@
         <v>113.9673985933332</v>
       </c>
       <c r="O15" t="n">
-        <v>443.3324747846772</v>
+        <v>571.9287132463097</v>
       </c>
       <c r="P15" t="n">
-        <v>556.0758899543827</v>
+        <v>325.6550714923142</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.847849831792985</v>
+        <v>334.5684186997176</v>
       </c>
       <c r="R15" t="n">
         <v>23.90893526936635</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>3.900175457425846</v>
+        <v>267.6908951258609</v>
       </c>
       <c r="K17" t="n">
         <v>39.15852053983053</v>
@@ -35898,16 +35898,16 @@
         <v>571.9287132463097</v>
       </c>
       <c r="O17" t="n">
-        <v>439.8776030057482</v>
+        <v>91.79305422627633</v>
       </c>
       <c r="P17" t="n">
-        <v>55.6910757936285</v>
+        <v>87.61482031487238</v>
       </c>
       <c r="Q17" t="n">
         <v>10.19310761144177</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>52.37008458979346</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>186.6697808721339</v>
       </c>
       <c r="K18" t="n">
-        <v>34.16708755006438</v>
+        <v>446.732857289687</v>
       </c>
       <c r="L18" t="n">
-        <v>571.9287132463097</v>
+        <v>76.35565533887733</v>
       </c>
       <c r="M18" t="n">
         <v>101.8125031774552</v>
       </c>
       <c r="N18" t="n">
-        <v>571.9287132463097</v>
+        <v>113.9673985933332</v>
       </c>
       <c r="O18" t="n">
-        <v>397.9369298713235</v>
+        <v>424.5151829520508</v>
       </c>
       <c r="P18" t="n">
         <v>556.0758899543827</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.847849831792985</v>
+        <v>334.5684186997176</v>
       </c>
       <c r="R18" t="n">
         <v>23.90893526936635</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>3.900175457425846</v>
+        <v>267.6908951258609</v>
       </c>
       <c r="K20" t="n">
         <v>39.15852053983053</v>
       </c>
       <c r="L20" t="n">
+        <v>72.80803686559378</v>
+      </c>
+      <c r="M20" t="n">
+        <v>101.8060346083459</v>
+      </c>
+      <c r="N20" t="n">
+        <v>259.7427835892357</v>
+      </c>
+      <c r="O20" t="n">
         <v>571.9287132463097</v>
       </c>
-      <c r="M20" t="n">
-        <v>571.9287132463097</v>
-      </c>
-      <c r="N20" t="n">
-        <v>571.9287132463097</v>
-      </c>
-      <c r="O20" t="n">
-        <v>387.5075184159549</v>
-      </c>
       <c r="P20" t="n">
-        <v>55.6910757936285</v>
+        <v>557.6970605411414</v>
       </c>
       <c r="Q20" t="n">
-        <v>10.19310761144177</v>
+        <v>341.404493040893</v>
       </c>
       <c r="R20" t="n">
         <v>52.37008458979346</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>186.6697808721339</v>
       </c>
       <c r="K21" t="n">
-        <v>34.16708755006438</v>
+        <v>446.732857289687</v>
       </c>
       <c r="L21" t="n">
-        <v>448.5315741501373</v>
+        <v>571.9287132463097</v>
       </c>
       <c r="M21" t="n">
-        <v>571.9287132463097</v>
+        <v>101.8125031774552</v>
       </c>
       <c r="N21" t="n">
-        <v>571.9287132463097</v>
+        <v>113.9673985933332</v>
       </c>
       <c r="O21" t="n">
-        <v>571.9287132463097</v>
+        <v>89.66914995093175</v>
       </c>
       <c r="P21" t="n">
-        <v>59.27397087608071</v>
+        <v>395.3488650480695</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.847849831792985</v>
+        <v>334.5684186997176</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>23.90893526936635</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>30.92439366026061</v>
+        <v>267.6908951258609</v>
       </c>
       <c r="K23" t="n">
         <v>544.8253641508475</v>
@@ -36378,7 +36378,7 @@
         <v>557.6970605411414</v>
       </c>
       <c r="Q23" t="n">
-        <v>341.404493040893</v>
+        <v>104.6379915752929</v>
       </c>
       <c r="R23" t="n">
         <v>52.37008458979346</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>186.6697808721339</v>
       </c>
       <c r="K24" t="n">
-        <v>34.16708755006438</v>
+        <v>446.732857289687</v>
       </c>
       <c r="L24" t="n">
-        <v>654.8665940122736</v>
+        <v>411.2016883399963</v>
       </c>
       <c r="M24" t="n">
-        <v>194.5874341825277</v>
+        <v>101.8125031774552</v>
       </c>
       <c r="N24" t="n">
         <v>113.9673985933332</v>
       </c>
       <c r="O24" t="n">
-        <v>704.0943680226297</v>
+        <v>89.66914995093175</v>
       </c>
       <c r="P24" t="n">
         <v>556.0758899543827</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.847849831792985</v>
+        <v>334.5684186997176</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>23.90893526936635</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>3.900175457425846</v>
+        <v>267.6908951258609</v>
       </c>
       <c r="K26" t="n">
         <v>39.15852053983053</v>
@@ -36609,16 +36609,16 @@
         <v>788.7438328934529</v>
       </c>
       <c r="O26" t="n">
-        <v>685.841336996159</v>
+        <v>96.55921570959923</v>
       </c>
       <c r="P26" t="n">
-        <v>179.8355743332231</v>
+        <v>557.6970605411414</v>
       </c>
       <c r="Q26" t="n">
         <v>341.404493040893</v>
       </c>
       <c r="R26" t="n">
-        <v>52.37008458979346</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>186.6697808721339</v>
       </c>
       <c r="K27" t="n">
-        <v>34.16708755006438</v>
+        <v>226.9768868867762</v>
       </c>
       <c r="L27" t="n">
-        <v>76.35565533887733</v>
+        <v>654.8665940122736</v>
       </c>
       <c r="M27" t="n">
-        <v>828.3124026274552</v>
+        <v>101.8125031774552</v>
       </c>
       <c r="N27" t="n">
-        <v>861.7415025692767</v>
+        <v>113.9673985933332</v>
       </c>
       <c r="O27" t="n">
-        <v>397.9081533534568</v>
+        <v>89.66914995093175</v>
       </c>
       <c r="P27" t="n">
-        <v>59.27397087608071</v>
+        <v>556.0758899543827</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.847849831792985</v>
+        <v>334.5684186997176</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36849,13 +36849,13 @@
         <v>685.841336996159</v>
       </c>
       <c r="P29" t="n">
-        <v>57.75020074145071</v>
+        <v>55.6910757936285</v>
       </c>
       <c r="Q29" t="n">
         <v>10.19310761144177</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>2.059124947822277</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>180.4147585868138</v>
+        <v>267.6908951258609</v>
       </c>
       <c r="K32" t="n">
-        <v>39.15852053983053</v>
+        <v>544.8253641508475</v>
       </c>
       <c r="L32" t="n">
         <v>724.3595315642965</v>
       </c>
       <c r="M32" t="n">
-        <v>803.0471468571646</v>
+        <v>101.8060346083459</v>
       </c>
       <c r="N32" t="n">
-        <v>788.7438328934529</v>
+        <v>673.8772810843523</v>
       </c>
       <c r="O32" t="n">
         <v>685.841336996159</v>
       </c>
       <c r="P32" t="n">
-        <v>55.6910757936285</v>
+        <v>557.6970605411414</v>
       </c>
       <c r="Q32" t="n">
-        <v>341.404493040893</v>
+        <v>10.19310761144177</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>52.37008458979346</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>186.6697808721339</v>
       </c>
       <c r="K33" t="n">
-        <v>34.16708755006438</v>
+        <v>446.732857289687</v>
       </c>
       <c r="L33" t="n">
-        <v>635.5668436390439</v>
+        <v>76.35565533887733</v>
       </c>
       <c r="M33" t="n">
-        <v>828.3124026274552</v>
+        <v>101.8125031774552</v>
       </c>
       <c r="N33" t="n">
         <v>113.9673985933332</v>
       </c>
       <c r="O33" t="n">
-        <v>89.66914995093175</v>
+        <v>424.5151829520506</v>
       </c>
       <c r="P33" t="n">
         <v>556.0758899543827</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.847849831792985</v>
+        <v>334.5684186997176</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>23.90893526936635</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,22 +37308,22 @@
         <v>3.900175457425846</v>
       </c>
       <c r="K35" t="n">
-        <v>39.15852053983053</v>
+        <v>350.6831670073416</v>
       </c>
       <c r="L35" t="n">
-        <v>439.8776030057483</v>
+        <v>571.9287132463097</v>
       </c>
       <c r="M35" t="n">
         <v>571.9287132463097</v>
       </c>
       <c r="N35" t="n">
-        <v>571.9287132463097</v>
+        <v>106.4826308107577</v>
       </c>
       <c r="O35" t="n">
-        <v>571.9287132463097</v>
+        <v>91.79305422627633</v>
       </c>
       <c r="P35" t="n">
-        <v>55.6910757936285</v>
+        <v>557.6970605411414</v>
       </c>
       <c r="Q35" t="n">
         <v>10.19310761144177</v>
@@ -37390,25 +37390,25 @@
         <v>446.732857289687</v>
       </c>
       <c r="L36" t="n">
-        <v>76.35565533887733</v>
+        <v>411.2016883399965</v>
       </c>
       <c r="M36" t="n">
-        <v>571.9287132463097</v>
+        <v>101.8125031774552</v>
       </c>
       <c r="N36" t="n">
-        <v>571.9287132463097</v>
+        <v>113.9673985933332</v>
       </c>
       <c r="O36" t="n">
-        <v>344.869081445813</v>
+        <v>89.66914995093175</v>
       </c>
       <c r="P36" t="n">
-        <v>59.27397087608071</v>
+        <v>556.0758899543827</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.847849831792985</v>
+        <v>334.5684186997176</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>23.90893526936635</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>3.900175457425846</v>
+        <v>267.6908951258609</v>
       </c>
       <c r="K38" t="n">
         <v>39.15852053983053</v>
       </c>
       <c r="L38" t="n">
-        <v>439.8776030057483</v>
+        <v>571.9287132463097</v>
       </c>
       <c r="M38" t="n">
         <v>571.9287132463097</v>
@@ -37557,13 +37557,13 @@
         <v>571.9287132463097</v>
       </c>
       <c r="O38" t="n">
-        <v>571.9287132463097</v>
+        <v>91.79305422627633</v>
       </c>
       <c r="P38" t="n">
         <v>55.6910757936285</v>
       </c>
       <c r="Q38" t="n">
-        <v>10.19310761144177</v>
+        <v>94.4869367224792</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>186.6697808721339</v>
       </c>
       <c r="K39" t="n">
         <v>446.732857289687</v>
       </c>
       <c r="L39" t="n">
-        <v>571.9287132463097</v>
+        <v>411.2016883399965</v>
       </c>
       <c r="M39" t="n">
         <v>101.8125031774552</v>
       </c>
       <c r="N39" t="n">
-        <v>506.0820144793692</v>
+        <v>113.9673985933332</v>
       </c>
       <c r="O39" t="n">
-        <v>571.9287132463097</v>
+        <v>89.66914995093175</v>
       </c>
       <c r="P39" t="n">
-        <v>59.27397087608071</v>
+        <v>556.0758899543827</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.847849831792985</v>
+        <v>334.5684186997176</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>23.90893526936635</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37797,13 +37797,13 @@
         <v>91.79305422627633</v>
       </c>
       <c r="P41" t="n">
-        <v>133.438737674364</v>
+        <v>55.6910757936285</v>
       </c>
       <c r="Q41" t="n">
-        <v>10.19310761144177</v>
+        <v>35.57068490238433</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>52.37008458979346</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>186.6697808721339</v>
       </c>
       <c r="K42" t="n">
-        <v>406.3430063613243</v>
+        <v>195.7642902198239</v>
       </c>
       <c r="L42" t="n">
         <v>76.35565533887733</v>
@@ -37882,7 +37882,7 @@
         <v>6.847849831792985</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>23.90893526936635</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,25 +38019,25 @@
         <v>3.900175457425846</v>
       </c>
       <c r="K44" t="n">
-        <v>39.15852053983053</v>
+        <v>544.8253641508475</v>
       </c>
       <c r="L44" t="n">
-        <v>571.9287132463097</v>
+        <v>72.80803686559378</v>
       </c>
       <c r="M44" t="n">
-        <v>571.9287132463097</v>
+        <v>101.8060346083459</v>
       </c>
       <c r="N44" t="n">
         <v>106.4826308107577</v>
       </c>
       <c r="O44" t="n">
-        <v>403.3177006937872</v>
+        <v>535.682826671999</v>
       </c>
       <c r="P44" t="n">
         <v>557.6970605411414</v>
       </c>
       <c r="Q44" t="n">
-        <v>10.19310761144177</v>
+        <v>341.404493040893</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>186.6697808721339</v>
       </c>
       <c r="K45" t="n">
-        <v>34.16708755006438</v>
+        <v>446.732857289687</v>
       </c>
       <c r="L45" t="n">
         <v>571.9287132463097</v>
       </c>
       <c r="M45" t="n">
-        <v>554.8633846658225</v>
+        <v>101.8125031774552</v>
       </c>
       <c r="N45" t="n">
         <v>113.9673985933332</v>
       </c>
       <c r="O45" t="n">
-        <v>571.9287132463097</v>
+        <v>89.66914995093175</v>
       </c>
       <c r="P45" t="n">
-        <v>59.27397087608071</v>
+        <v>395.3488650480695</v>
       </c>
       <c r="Q45" t="n">
         <v>334.5684186997176</v>
